--- a/doc/ue_ds_client.xlsx
+++ b/doc/ue_ds_client.xlsx
@@ -5,15 +5,18 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\ue\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\ue\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="地图切换流程" sheetId="3" r:id="rId3"/>
+    <sheet name="同步" sheetId="4" r:id="rId4"/>
+    <sheet name="重连" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -25,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
   <si>
     <t>RPC</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1376,11 +1379,47 @@
   <si>
     <t>https://zhuanlan.zhihu.com/p/343847343</t>
   </si>
+  <si>
+    <t>void FEngineLoop::Tick()</t>
+  </si>
+  <si>
+    <t>GEngine-&gt;Tick(FApp::GetDeltaTime(), bIdleMode);</t>
+  </si>
+  <si>
+    <t>void UGameEngine::Tick( float DeltaSeconds, bool bIdleMode )</t>
+  </si>
+  <si>
+    <t>for (int32 WorldIdx = 0; WorldIdx &lt; WorldList.Num(); ++WorldIdx)</t>
+  </si>
+  <si>
+    <t>//main game engine tick (world, game objects, etc.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FWorldContext &amp;Context = WorldList[WorldIdx];</t>
+  </si>
+  <si>
+    <t>GWorld = Context.World();</t>
+  </si>
+  <si>
+    <t>{</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>！！！设置为GWorld</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TickWorldTravel(Context, DeltaSeconds);</t>
+  </si>
+  <si>
+    <t>void UEngine::TickWorldTravel(FWorldContext&amp; Context, float DeltaSeconds)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1436,12 +1475,6 @@
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FF121212"/>
-      <name val="Consolas"/>
-      <family val="3"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <color rgb="FF0066FF"/>
       <name val="Consolas"/>
       <family val="3"/>
@@ -1458,6 +1491,15 @@
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1486,7 +1528,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1506,9 +1548,10 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1791,8 +1834,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:C59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="B59" sqref="B59"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C65" sqref="C65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1840,7 +1883,7 @@
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B9" s="2"/>
     </row>
-    <row r="11" spans="1:3" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B11" s="3" t="s">
         <v>8</v>
       </c>
@@ -1886,7 +1929,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="24" spans="2:3" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B24" s="3"/>
       <c r="C24" s="3" t="s">
         <v>37</v>
@@ -2008,7 +2051,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2016,7 +2059,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A33"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -2045,4 +2088,101 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C5:K17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="5" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="D6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="D7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="D10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="D11" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="E12" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="E13" t="s">
+        <v>47</v>
+      </c>
+      <c r="K13" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="E15" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C17" t="s">
+        <v>51</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H30" sqref="H30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/doc/ue_ds_client.xlsx
+++ b/doc/ue_ds_client.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\ue\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Github\guanzhongdaoke\ue\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A60EF076-349E-4669-99AE-5373F22312DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
   <si>
     <t>RPC</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1415,12 +1416,20 @@
   <si>
     <t>void UEngine::TickWorldTravel(FWorldContext&amp; Context, float DeltaSeconds)</t>
   </si>
+  <si>
+    <t>CMD：open 127.0.0.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>连接本地DS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="12" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1501,6 +1510,21 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1528,7 +1552,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1548,10 +1572,12 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1831,7 +1857,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A4:C59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2056,7 +2082,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:A33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2065,12 +2091,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9" style="7" customWidth="1"/>
-    <col min="2" max="16384" width="9" style="7"/>
+    <col min="1" max="1" width="9" style="8" customWidth="1"/>
+    <col min="2" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="8" t="s">
         <v>38</v>
       </c>
     </row>
@@ -2078,9 +2104,9 @@
     <row r="5" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="8" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="10" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="18" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="26" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="33" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="18" s="8" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="26" s="8" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="33" s="8" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:XFD1048576"/>
@@ -2091,59 +2117,71 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C5:K17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="B2:K17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="5" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B2" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C5" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:11" x14ac:dyDescent="0.2">
       <c r="D6" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:11" x14ac:dyDescent="0.2">
       <c r="D7" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="9" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C9" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:11" x14ac:dyDescent="0.2">
       <c r="D10" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="11" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:11" x14ac:dyDescent="0.2">
       <c r="D11" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:11" x14ac:dyDescent="0.2">
       <c r="E12" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="13" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:11" x14ac:dyDescent="0.2">
       <c r="E13" t="s">
         <v>47</v>
       </c>
-      <c r="K13" s="8" t="s">
+      <c r="K13" s="7" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="15" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:11" x14ac:dyDescent="0.2">
       <c r="E15" t="s">
         <v>50</v>
       </c>
@@ -2160,7 +2198,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2173,7 +2211,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/doc/ue_ds_client.xlsx
+++ b/doc/ue_ds_client.xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Github\guanzhongdaoke\ue\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A60EF076-349E-4669-99AE-5373F22312DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4783DB0C-FCF8-44B0-8EB5-A9FB096D987A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="地图切换流程" sheetId="3" r:id="rId3"/>
-    <sheet name="同步" sheetId="4" r:id="rId4"/>
-    <sheet name="重连" sheetId="5" r:id="rId5"/>
+    <sheet name="连接流程" sheetId="6" r:id="rId4"/>
+    <sheet name="同步" sheetId="4" r:id="rId5"/>
+    <sheet name="重连" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -1573,11 +1574,11 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1593,6 +1594,72 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E0E9CF51-A94C-3CCF-C7A8-26C639B7B62C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3657600" y="447675"/>
+          <a:ext cx="6858000" cy="9744075"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2091,12 +2158,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9" style="8" customWidth="1"/>
-    <col min="2" max="16384" width="9" style="8"/>
+    <col min="1" max="1" width="9" style="10" customWidth="1"/>
+    <col min="2" max="16384" width="9" style="10"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="10" t="s">
         <v>38</v>
       </c>
     </row>
@@ -2104,9 +2171,9 @@
     <row r="5" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="8" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="10" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="18" s="8" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="26" s="8" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="33" s="8" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="18" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="26" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="33" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:XFD1048576"/>
@@ -2120,23 +2187,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B2:K17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="2" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10" t="s">
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C5" t="s">
@@ -2198,6 +2265,23 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63A80C41-4EF6-4F43-A14B-1C059DE4C7DB}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -2210,7 +2294,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>

--- a/doc/ue_ds_client.xlsx
+++ b/doc/ue_ds_client.xlsx
@@ -1,24 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Github\guanzhongdaoke\ue\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\ue\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4783DB0C-FCF8-44B0-8EB5-A9FB096D987A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="地图切换流程" sheetId="3" r:id="rId3"/>
-    <sheet name="连接流程" sheetId="6" r:id="rId4"/>
-    <sheet name="同步" sheetId="4" r:id="rId5"/>
-    <sheet name="重连" sheetId="5" r:id="rId6"/>
+    <sheet name="简介" sheetId="9" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
+    <sheet name="地图切换流程" sheetId="3" r:id="rId4"/>
+    <sheet name="握手" sheetId="7" r:id="rId5"/>
+    <sheet name="连接流程" sheetId="6" r:id="rId6"/>
+    <sheet name="同步" sheetId="4" r:id="rId7"/>
+    <sheet name="重连" sheetId="5" r:id="rId8"/>
+    <sheet name="Sheet4" sheetId="8" r:id="rId9"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -30,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="169">
   <si>
     <t>RPC</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1425,11 +1427,404 @@
     <t>连接本地DS</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>例如CMD：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>open 127.0.0.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>if (Browse( Context, FURL(&amp;Context.LastURL,*TravelURLCopy,(ETravelType)Context.TravelType), Error ) == EBrowseReturnVal::Failure)</t>
+  </si>
+  <si>
+    <t>EBrowseReturnVal::Type UEngine::Browse( FWorldContext&amp; WorldContext, FURL URL, FString&amp; Error )</t>
+  </si>
+  <si>
+    <t>if( URL.IsLocalInternal() )</t>
+  </si>
+  <si>
+    <t>return LoadMap( WorldContext, URL, NULL, Error ) ? EBrowseReturnVal::Success : EBrowseReturnVal::Failure;</t>
+  </si>
+  <si>
+    <t>本地的模式，直接加载地图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>else if( URL.IsInternal() &amp;&amp; GIsClient )</t>
+  </si>
+  <si>
+    <t>销毁当前的PendingNetGame</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>if( WorldContext.PendingNetGame )</t>
+  </si>
+  <si>
+    <t>CancelPending(WorldContext);</t>
+  </si>
+  <si>
+    <t>// Network URL.</t>
+  </si>
+  <si>
+    <t>// Clean up the netdriver/socket so that the pending level succeeds</t>
+  </si>
+  <si>
+    <t>if (WorldContext.World() &amp;&amp; ShouldShutdownWorldNetDriver())</t>
+  </si>
+  <si>
+    <t>ShutdownWorldNetDriver(WorldContext.World());</t>
+  </si>
+  <si>
+    <t>销毁NetDriver</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WorldContext.PendingNetGame = NewObject&lt;UPendingNetGame&gt;();</t>
+  </si>
+  <si>
+    <t>WorldContext.PendingNetGame-&gt;Initialize(URL); //-V595</t>
+  </si>
+  <si>
+    <t>WorldContext.PendingNetGame-&gt;InitNetDriver(); //-V595</t>
+  </si>
+  <si>
+    <t>发起握手流程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建PendingNetGame，所谓WorldContext对象</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建NetDriver</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void UPendingNetGame::InitNetDriver()</t>
+  </si>
+  <si>
+    <t>// Try to create network driver.</t>
+  </si>
+  <si>
+    <t>if (GEngine-&gt;CreateNamedNetDriver(this, NAME_PendingNetDriver, NAME_GameNetDriver))</t>
+  </si>
+  <si>
+    <t>NetDriver = GEngine-&gt;FindNamedNetDriver(this, NAME_PendingNetDriver);</t>
+  </si>
+  <si>
+    <t>创建NetDriver</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建和初始化NetDriver</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>if( NetDriver-&gt;InitConnect( this, URL, ConnectionError ) )</t>
+  </si>
+  <si>
+    <t>初始化Connect</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bool UIpNetDriver::InitConnect( FNetworkNotify* InNotify, const FURL&amp; ConnectURL, FString&amp; Error )</t>
+  </si>
+  <si>
+    <t>ServerConnection = NewObject&lt;UNetConnection&gt;(GetTransientPackage(), NetConnectionClass);</t>
+  </si>
+  <si>
+    <t>UIpConnection* IPConnection = CastChecked&lt;UIpConnection&gt;(ServerConnection);</t>
+  </si>
+  <si>
+    <t>创建NetConnection，默认就是ipconnection</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>if( !InitBase( true, InNotify, ConnectURL, false, Error ) )</t>
+  </si>
+  <si>
+    <t>内部创建和绑定SOCKET</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>！！！SOCKET绑定在这个地方</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>！！！这个里面会设置UDP得发送接收缓冲区，这个对UDP没用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CreateInitialClientChannels();</t>
+  </si>
+  <si>
+    <t>UNetConnection</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TArray&lt;UChannel*&gt; Channels;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通道列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1：ContorlChannel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2：VoiceChannel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初始化客户端Channels；这个时候只有两个</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>！！！！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分为握手和登录Join</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>握手</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>相关广播事件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录Join</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>相关广播事件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>StatelessConnectHandlerComponent</t>
+  </si>
+  <si>
+    <t>！！！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初始化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TICK中更新发包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>if( Context.PendingNetGame )</t>
+  </si>
+  <si>
+    <t>}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Context.PendingNetGame-&gt;Tick( DeltaSeconds );</t>
+  </si>
+  <si>
+    <t>void UPendingNetGame::Tick( float DeltaTime )</t>
+  </si>
+  <si>
+    <t>NetDriver-&gt;TickDispatch(DeltaTime);</t>
+  </si>
+  <si>
+    <t>if (NetDriver)</t>
+  </si>
+  <si>
+    <t>NetDriver-&gt;PostTickDispatch();</t>
+  </si>
+  <si>
+    <t>NetDriver-&gt;TickFlush(DeltaTime);</t>
+  </si>
+  <si>
+    <t>NetDriver-&gt;PostTickFlush();</t>
+  </si>
+  <si>
+    <t>这个里面发包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void UNetDriver::TickFlush(float DeltaSeconds)</t>
+  </si>
+  <si>
+    <t>// Poll all sockets.</t>
+  </si>
+  <si>
+    <t>if( ServerConnection )</t>
+  </si>
+  <si>
+    <t>// Queue client voice packets in the server's voice channel</t>
+  </si>
+  <si>
+    <t>ProcessLocalClientPackets();</t>
+  </si>
+  <si>
+    <t>ServerConnection-&gt;Tick(DeltaSeconds);</t>
+  </si>
+  <si>
+    <t>void UIpConnection::Tick(float DeltaSeconds)</t>
+  </si>
+  <si>
+    <t>里面不断的判断ResolutionState</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>if (ResolutionState == EAddressResolutionState::TryNextAddress)</t>
+  </si>
+  <si>
+    <t>ResolutionState = EAddressResolutionState::Connecting;</t>
+  </si>
+  <si>
+    <t>else if (ResolutionState == EAddressResolutionState::Connected)</t>
+  </si>
+  <si>
+    <t>ResolutionState = EAddressResolutionState::Done;</t>
+  </si>
+  <si>
+    <t>else if (ResolutionState == EAddressResolutionState::Error)</t>
+  </si>
+  <si>
+    <t>！！！注意，这里没有判断Connecting</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Super::Tick(DeltaSeconds);</t>
+  </si>
+  <si>
+    <t>继续父类的判断</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void UNetConnection::Tick(float DeltaSeconds)</t>
+  </si>
+  <si>
+    <t>Handler-&gt;Tick(FrameTime);</t>
+  </si>
+  <si>
+    <t>void PacketHandler::Tick(float DeltaTime)</t>
+  </si>
+  <si>
+    <t>for (const TSharedPtr&lt;HandlerComponent&gt;&amp; Component : HandlerComponents)</t>
+  </si>
+  <si>
+    <t>if (Component.IsValid())</t>
+  </si>
+  <si>
+    <t>Component-&gt;Tick(DeltaTime);</t>
+  </si>
+  <si>
+    <t>！！！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>StatelessConnectHandlerComponent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void StatelessConnectHandlerComponent::Tick(float DeltaTime)</t>
+  </si>
+  <si>
+    <t>if (Handler-&gt;Mode == Handler::Mode::Client)</t>
+  </si>
+  <si>
+    <t>if (State != Handler::Component::State::Initialized &amp;&amp; LastClientSendTimestamp != 0.0)</t>
+  </si>
+  <si>
+    <t>double LastSendTimeDiff = FPlatformTime::Seconds() - LastClientSendTimestamp;</t>
+  </si>
+  <si>
+    <t>if (LastSendTimeDiff &gt; 1.0)</t>
+  </si>
+  <si>
+    <t>const bool bRestartChallenge = Driver != nullptr &amp;&amp; ((Driver-&gt;GetElapsedTime() - LastChallengeTimestamp) &gt; MIN_COOKIE_LIFETIME);</t>
+  </si>
+  <si>
+    <t>if (bRestartChallenge)</t>
+  </si>
+  <si>
+    <t>SetState(Handler::Component::State::UnInitialized);</t>
+  </si>
+  <si>
+    <t>if (State == Handler::Component::State::UnInitialized)</t>
+  </si>
+  <si>
+    <t>UE_LOG(LogHandshake, Verbose, TEXT("Initial handshake packet timeout - resending."));</t>
+  </si>
+  <si>
+    <t>NotifyHandshakeBegin();</t>
+  </si>
+  <si>
+    <t>else if (State == Handler::Component::State::InitializedOnLocal &amp;&amp; LastTimestamp != 0.0)</t>
+  </si>
+  <si>
+    <t>UE_LOG(LogHandshake, Verbose, TEXT("Challenge response packet timeout - resending."));</t>
+  </si>
+  <si>
+    <t>SendChallengeResponse(LastSecretId, LastTimestamp, LastCookie);</t>
+  </si>
+  <si>
+    <t>有超时机制，有状态机制，按照状态进行发包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>超时判断，这块真叼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发送开始握手包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">发送反馈包 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务器返回消息包处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void StatelessConnectHandlerComponent::Incoming(FBitReader&amp; Packet)</t>
+  </si>
+  <si>
+    <t>握手包的返回处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据Timestamp设置不同的状态，发不同的反馈包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回ChallengeResponse</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注意，收到challenge ack之后就Initialized</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>然后到void UPendingNetGame::SendInitialJoin()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发送NMT_Hello消息包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1924,7 +2319,57 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B6:K23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P22" sqref="P22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="9" style="7"/>
+  </cols>
+  <sheetData>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B6" s="7" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K8" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B13" s="7" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="C14" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B22" s="7" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C23" t="s">
+        <v>104</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:C59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2148,8 +2593,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2171,9 +2616,9 @@
     <row r="5" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="8" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="10" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="18" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="26" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="33" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="18" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="26" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="33" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:XFD1048576"/>
@@ -2183,8 +2628,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:K17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2264,11 +2709,779 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63A80C41-4EF6-4F43-A14B-1C059DE4C7DB}">
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:W166"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="L18" sqref="L18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="10.875" style="7" customWidth="1"/>
+    <col min="18" max="18" width="9" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="7"/>
+      <c r="B4"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="7"/>
+      <c r="B5"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="B6"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="7"/>
+      <c r="B7" s="8" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="7"/>
+      <c r="B8" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="7"/>
+      <c r="B9"/>
+      <c r="C9" s="8" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="7"/>
+      <c r="B10"/>
+      <c r="C10" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="7"/>
+      <c r="B11"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="7"/>
+      <c r="B12"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="7"/>
+      <c r="B13" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="7"/>
+      <c r="B14"/>
+      <c r="C14" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="7"/>
+      <c r="B15"/>
+      <c r="D15" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="7"/>
+      <c r="B16"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="7"/>
+      <c r="B17"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B21" s="7" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C22" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D23" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C24" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D26" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E27" s="8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E28" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D29" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E30" s="8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E31" s="8" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E32" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="33" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="E33" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="34" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="F34" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="35" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="E35" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="36" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="E36" s="8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="37" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="E37" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="38" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="E38" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="39" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="E39" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="40" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="F40" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="41" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="E41" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="42" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="E42" s="8" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="43" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="E43" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="44" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="E44" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="45" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="E45" s="8" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="46" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="E46" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="48" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="H48" s="8" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="49" spans="8:21" x14ac:dyDescent="0.2">
+      <c r="H49" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="50" spans="8:21" x14ac:dyDescent="0.2">
+      <c r="I50" s="8" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="51" spans="8:21" x14ac:dyDescent="0.2">
+      <c r="I51" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="52" spans="8:21" x14ac:dyDescent="0.2">
+      <c r="I52" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="53" spans="8:21" x14ac:dyDescent="0.2">
+      <c r="I53" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="54" spans="8:21" x14ac:dyDescent="0.2">
+      <c r="J54" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="55" spans="8:21" x14ac:dyDescent="0.2">
+      <c r="I55" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="56" spans="8:21" x14ac:dyDescent="0.2">
+      <c r="I56" s="8" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="57" spans="8:21" x14ac:dyDescent="0.2">
+      <c r="I57" s="8"/>
+    </row>
+    <row r="58" spans="8:21" x14ac:dyDescent="0.2">
+      <c r="I58" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="60" spans="8:21" x14ac:dyDescent="0.2">
+      <c r="K60" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="61" spans="8:21" x14ac:dyDescent="0.2">
+      <c r="L61" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="U61" s="7" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="62" spans="8:21" x14ac:dyDescent="0.2">
+      <c r="L62" t="s">
+        <v>88</v>
+      </c>
+      <c r="U62" s="7" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="64" spans="8:21" x14ac:dyDescent="0.2">
+      <c r="L64" s="8" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="L65" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="L66" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="L68" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="R68" s="7" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="L69" s="8" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="L70" s="8" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="L71" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q71" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="R72" t="s">
+        <v>94</v>
+      </c>
+      <c r="U72" t="s">
+        <v>95</v>
+      </c>
+      <c r="W72" s="7" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="B76" s="7" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="78" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="C78" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="D79" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="D80" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="81" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="E81" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="82" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D82" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="83" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C83" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="85" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D85" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="86" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D86" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="87" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D87" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="88" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="E88" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="89" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D89" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="91" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D91" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="92" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D92" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="93" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="E93" s="8" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="94" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="E94" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="95" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D95" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="97" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D97" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="98" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D98" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="99" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="E99" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="100" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D100" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="102" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C102" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="104" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D104" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="105" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D105" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="106" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D106" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="107" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="E107" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="108" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="E108" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="109" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="E109" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="110" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D110" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="112" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C112" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="113" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="D113" s="8" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="114" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="D114" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="115" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="E115" t="s">
+        <v>128</v>
+      </c>
+      <c r="L115" s="7" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="116" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="D116" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="117" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="E117" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="118" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="D118" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="119" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="E119" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="120" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="D120" s="8" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="121" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="D121" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="123" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C123" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="124" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="D124" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="126" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C126" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="127" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="D127" t="s">
+        <v>138</v>
+      </c>
+      <c r="N127" s="7" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="128" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="D128" t="s">
+        <v>29</v>
+      </c>
+      <c r="N128" s="7" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="129" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="E129" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="130" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="E130" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="131" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="F131" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="132" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="E132" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="133" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="D133" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="135" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C135" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="136" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="D136" s="8" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="137" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="D137" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="138" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="D138" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="139" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="E139" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="140" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="E140" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="141" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="F141" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="143" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="F143" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="144" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="F144" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="145" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G145" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="146" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G146" s="8" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="147" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G147" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="148" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G148" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="149" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="H149" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="150" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G150" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="152" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G152" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="153" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G153" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="154" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="H154" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="155" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="H155" s="8" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="156" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="H156" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="157" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G157" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="158" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G158" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="159" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G159" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="160" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="H160" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="161" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="H161" s="8" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="162" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="H162" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="163" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="G163" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="164" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="F164" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="165" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="E165" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="166" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="D166" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
@@ -2281,8 +3494,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2294,8 +3507,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2307,4 +3520,19 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J33" sqref="J33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/doc/ue_ds_client.xlsx
+++ b/doc/ue_ds_client.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\ue\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Github\guanzhongdaoke\ue\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E5F7396-B663-412F-9217-952ED5DEC67D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="759" firstSheet="1" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="简介" sheetId="9" r:id="rId1"/>
@@ -20,7 +21,10 @@
     <sheet name="连接流程" sheetId="6" r:id="rId6"/>
     <sheet name="同步" sheetId="4" r:id="rId7"/>
     <sheet name="重连" sheetId="5" r:id="rId8"/>
-    <sheet name="Sheet4" sheetId="8" r:id="rId9"/>
+    <sheet name="AGameModeBase" sheetId="10" r:id="rId9"/>
+    <sheet name="AGameStateBase" sheetId="11" r:id="rId10"/>
+    <sheet name="APlayerState" sheetId="8" r:id="rId11"/>
+    <sheet name="PlayerController" sheetId="12" r:id="rId12"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -32,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="211">
   <si>
     <t>RPC</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1794,37 +1798,185 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>握手包的返回处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据Timestamp设置不同的状态，发不同的反馈包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回ChallengeResponse</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注意，收到challenge ack之后就Initialized</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>然后到void UPendingNetGame::SendInitialJoin()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发送NMT_Hello消息包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>void StatelessConnectHandlerComponent::Incoming(FBitReader&amp; Packet)</t>
-  </si>
-  <si>
-    <t>握手包的返回处理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>根据Timestamp设置不同的状态，发不同的反馈包</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>返回ChallengeResponse</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>注意，收到challenge ack之后就Initialized</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>然后到void UPendingNetGame::SendInitialJoin()</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>发送NMT_Hello消息包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>连接流程：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>跳转场景</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LoadMap</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>// Update the pending level.</t>
+  </si>
+  <si>
+    <t>注意，这个地方就是看的UPendingNetGame对象</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>！！！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>const bool bLoadedMapSuccessfully = LoadMap(Context, Context.PendingNetGame-&gt;URL, Context.PendingNetGame, Error);</t>
+  </si>
+  <si>
+    <t>加载目标地图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>if (Context.PendingNetGame &amp;&amp; Context.PendingNetGame-&gt;bSuccessfullyConnected &amp;&amp; !Context.PendingNetGame-&gt;bSentJoinRequest &amp;&amp; (Context.OwningGameInstance == NULL || !Context.OwningGameInstance-&gt;DelayPendingNetGameTravel()))</t>
+  </si>
+  <si>
+    <t>条件判断</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在PendingNetGame.cpp收到消息包NMT_Welcome后设置URL和bSuccessfullyConnected</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Context.PendingNetGame-&gt;LoadMapCompleted(this, Context, bLoadedMapSuccessfully, Error);</t>
+  </si>
+  <si>
+    <t>加载完地图的成功回调</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void UPendingNetGame::LoadMapCompleted(UEngine* Engine, FWorldContext&amp; Context, bool bLoadedMapSuccessfully, const FString&amp; LoadMapError)</t>
+  </si>
+  <si>
+    <t>Context.PendingNetGame-&gt;SendJoin();</t>
+  </si>
+  <si>
+    <t>发送Join消息包？？？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在DS-Client模式下，客户端没有该类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户端创建</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>！！！！注意，仅仅是这个地方不依赖于GameMode创建了，但是会通过协议让客户端创建</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>会通过网络协议创建</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void APlayerState::PostInitializeComponents()</t>
+  </si>
+  <si>
+    <t>if (GameStateBase != nullptr )</t>
+  </si>
+  <si>
+    <t>GameStateBase-&gt;AddPlayerState(this);</t>
+  </si>
+  <si>
+    <t>和现有的gameState绑定，GameState也是通过服务器创建的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>！！！何时和PlayerController挂钩的？？？？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其从属于World，是World的一个变量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UCLASS(customConstructor, config=Engine)</t>
+  </si>
+  <si>
+    <t>class ENGINE_API UWorld final : public UObject, public FNetworkNotify</t>
+  </si>
+  <si>
+    <t>成员变量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/** The NAME_GameNetDriver game connection(s) for client/server communication */</t>
+  </si>
+  <si>
+    <t>UPROPERTY(Transient)</t>
+  </si>
+  <si>
+    <t>class UNetDriver*</t>
+  </si>
+  <si>
+    <t>NetDriver;</t>
+  </si>
+  <si>
+    <t>！！！从属于World</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/** The current GameMode, valid only on the server */</t>
+  </si>
+  <si>
+    <t>class AGameModeBase*</t>
+  </si>
+  <si>
+    <t>AuthorityGameMode;</t>
+  </si>
+  <si>
+    <t>/** The replicated actor which contains game state information that can be accessible to clients. Direct access is not allowed, use GetGameState&lt;&gt;() */</t>
+  </si>
+  <si>
+    <t>class AGameStateBase*</t>
+  </si>
+  <si>
+    <t>GameState;</t>
+  </si>
+  <si>
+    <t>客户端模式下没有，主要进行PreLogin和Login等判断的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>从属于Controller</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1995,16 +2147,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2034,7 +2186,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="3657600" y="447675"/>
+          <a:off x="11591925" y="76200"/>
           <a:ext cx="6858000" cy="9744075"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2050,6 +2202,55 @@
             </a14:hiddenFill>
           </a:ext>
         </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>484086</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>161181</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F364B06A-2811-4772-9C97-A3B2A317A95B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2057400" y="1266825"/>
+          <a:ext cx="13514286" cy="5952381"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -2319,7 +2520,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B6:K23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2368,8 +2569,205 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF8BE456-7A1C-49D1-A2F1-4D79C91A2938}">
+  <dimension ref="B2:R22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="S8" sqref="S8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="2" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B2" s="7" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="3" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="C3" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="4" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="C4" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="5" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="C5" s="8" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="6" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="D6" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="7" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="D7" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="8" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="D8" t="s">
+        <v>200</v>
+      </c>
+      <c r="J8" t="s">
+        <v>201</v>
+      </c>
+      <c r="N8" s="8" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="10" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="D10" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="11" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="D11" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="12" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="D12" t="s">
+        <v>204</v>
+      </c>
+      <c r="J12" t="s">
+        <v>205</v>
+      </c>
+      <c r="N12" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="R12" s="8" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="14" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="D14" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="15" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="D15" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="16" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="D16" t="s">
+        <v>207</v>
+      </c>
+      <c r="J16" t="s">
+        <v>208</v>
+      </c>
+      <c r="N16" s="8" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B21" s="7" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C22" s="7" t="s">
+        <v>187</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="B3:P12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="9" style="7"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B3" s="7" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="4" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="P4" s="7"/>
+    </row>
+    <row r="5" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="C5" s="7"/>
+      <c r="P5" s="7"/>
+    </row>
+    <row r="6" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B6" s="7" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="7" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="C7" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="8" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="D8" s="8" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="9" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="D9" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="10" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="D10" t="s">
+        <v>29</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="11" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="E11" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="12" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="D12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FEB4444-9700-4BF4-A3D6-F4265D7AADC9}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O35" sqref="O35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A4:C59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2594,7 +2992,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:A33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2616,9 +3014,9 @@
     <row r="5" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="8" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="10" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="18" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="26" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="33" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="18" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="26" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="33" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:XFD1048576"/>
@@ -2629,7 +3027,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B2:K17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2710,11 +3108,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A3:W166"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2748,27 +3146,27 @@
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="7"/>
       <c r="B7" s="8" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="7"/>
       <c r="B8" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="7"/>
       <c r="B9"/>
       <c r="C9" s="8" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="7"/>
       <c r="B10"/>
       <c r="C10" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -2785,21 +3183,21 @@
         <v>99</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="7"/>
       <c r="B14"/>
       <c r="C14" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="7"/>
       <c r="B15"/>
-      <c r="D15" t="s">
-        <v>168</v>
+      <c r="D15" s="8" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
@@ -3478,15 +3876,125 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A4:I44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="H53" sqref="H53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="9" style="8"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" s="8" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A23" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B25" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C26" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C28" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B29" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C30" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="I30" s="7" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C31" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C32" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="33" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D33" s="8" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="34" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D34" s="8" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="35" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D35" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="36" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="E36" s="8" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="37" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="E37" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="39" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C39" s="8" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="40" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C40" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="42" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C42" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="43" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D43" s="8" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="44" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D44" t="s">
+        <v>183</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3495,7 +4003,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3508,7 +4016,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3523,16 +4031,23 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DC379E8-C154-40B8-83DA-C54E19B73075}">
+  <dimension ref="B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J33" sqref="J33"/>
+      <selection activeCell="J30" sqref="J30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetData>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B5" s="7" t="s">
+        <v>185</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/doc/ue_ds_client.xlsx
+++ b/doc/ue_ds_client.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Github\guanzhongdaoke\ue\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E5F7396-B663-412F-9217-952ED5DEC67D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B48332C-512B-4C55-A469-3CD7F3D2A3E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="759" firstSheet="1" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="759" firstSheet="1" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="简介" sheetId="9" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="228">
   <si>
     <t>RPC</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1972,12 +1972,72 @@
     <t>从属于Controller</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>该流程会释放LocalPlayer身上的PlayerController；重新和新的PlayerController绑定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void UActorChannel::ReceivedBunch( FInBunch &amp; Bunch )</t>
+  </si>
+  <si>
+    <t>ProcessBunch(Bunch);</t>
+  </si>
+  <si>
+    <t>void UActorChannel::ProcessBunch( FInBunch &amp; Bunch )</t>
+  </si>
+  <si>
+    <t>NotifyActorChannelOpen(Actor, Bunch);</t>
+  </si>
+  <si>
+    <t>void UActorChannel::NotifyActorChannelOpen(AActor* InActor, FInBunch&amp; InBunch)</t>
+  </si>
+  <si>
+    <t>Actor-&gt;OnActorChannelOpen(InBunch, Connection);</t>
+  </si>
+  <si>
+    <t>void APlayerController::OnActorChannelOpen(FInBunch&amp; InBunch, UNetConnection* Connection)</t>
+  </si>
+  <si>
+    <t>void UNetConnection::HandleClientPlayer( APlayerController *PC, UNetConnection* NetConnection )</t>
+  </si>
+  <si>
+    <t>何时创建自己的PlayerController???</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主要问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>别的玩家会创建吗？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlayerState和PlayerController怎么结合？？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>何时创建对应的PAWN？？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlayerController是针对玩家自己的，所以只会为自己创建，别的玩家不是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>！！！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自己和别人的PlayerState都会同步到每一个客户端</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2073,6 +2133,15 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -2100,7 +2169,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2123,6 +2192,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2247,6 +2317,99 @@
         <a:xfrm>
           <a:off x="2057400" y="1266825"/>
           <a:ext cx="13514286" cy="5952381"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>245914</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>18631</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C02BDDE-7FD5-ECAD-5F79-1169A1EB7631}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6934200" y="3543300"/>
+          <a:ext cx="13885714" cy="3352381"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>331567</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>151712</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC23B412-7D0F-66C2-2D1E-5462C0402CFA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7124700" y="7677150"/>
+          <a:ext cx="14466667" cy="5504762"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2684,10 +2847,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="B3:P12"/>
+  <dimension ref="B3:P15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2745,6 +2908,11 @@
         <v>27</v>
       </c>
     </row>
+    <row r="15" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B15" s="7" t="s">
+        <v>227</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2753,16 +2921,152 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FEB4444-9700-4BF4-A3D6-F4265D7AADC9}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:O14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O35" sqref="O35"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="9" style="10"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A1" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A2" s="7">
+        <v>1</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A3" s="7">
+        <v>2</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A4" s="7">
+        <v>3</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A5" s="7">
+        <v>4</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="N5" s="7" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A6" s="7"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="N6" s="7" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A7" s="7"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="N7" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O8" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="N9" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O10" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A11" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>225</v>
+      </c>
+      <c r="N11" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O12" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="N13" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="N14" t="s">
+        <v>219</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3001,12 +3305,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9" style="10" customWidth="1"/>
-    <col min="2" max="16384" width="9" style="10"/>
+    <col min="1" max="1" width="9" style="11" customWidth="1"/>
+    <col min="2" max="16384" width="9" style="11"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="11" t="s">
         <v>38</v>
       </c>
     </row>
@@ -3014,9 +3318,9 @@
     <row r="5" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="8" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="10" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="18" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="26" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="33" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="18" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="26" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="33" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:XFD1048576"/>

--- a/doc/ue_ds_client.xlsx
+++ b/doc/ue_ds_client.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Github\guanzhongdaoke\ue\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B48332C-512B-4C55-A469-3CD7F3D2A3E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEAF6336-87AC-4973-991A-696AD3287D3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="759" firstSheet="1" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="759" firstSheet="1" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="简介" sheetId="9" r:id="rId1"/>
@@ -25,6 +25,8 @@
     <sheet name="AGameStateBase" sheetId="11" r:id="rId10"/>
     <sheet name="APlayerState" sheetId="8" r:id="rId11"/>
     <sheet name="PlayerController" sheetId="12" r:id="rId12"/>
+    <sheet name="Pawn" sheetId="13" r:id="rId13"/>
+    <sheet name="编辑器模式和非编辑器模式不同" sheetId="14" r:id="rId14"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="291">
   <si>
     <t>RPC</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1969,10 +1971,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>从属于Controller</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>该流程会释放LocalPlayer身上的PlayerController；重新和新的PlayerController绑定</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2030,6 +2028,231 @@
   </si>
   <si>
     <t>自己和别人的PlayerState都会同步到每一个客户端</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DS和客户端的同步</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>例如通过消息，设置客户端的PlayerController中的PlayerState</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不仅仅是包含属性设置，包括对象赋值也是（对象本地会通过协议先创建，然后通过反射设置）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>// Go over recently imported network guids, and see if there are any replicators that need to map them</t>
+  </si>
+  <si>
+    <t>TSet&lt; FNetworkGUID &gt;&amp; ImportedNetGuids = GuidCache-&gt;ImportedNetGuids;</t>
+  </si>
+  <si>
+    <t>NewlyMappedGuids.Add( NetworkGuid );</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>插入到NewlyMappedGuids</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>遍历NewlyMappedGuids，从GuidToReplicatorMap找到对应的FObjectReplicator，放入列表AllReplicators</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>for ( const FNetworkGUID&amp; NetGuid : NewlyMappedGuids )</t>
+  </si>
+  <si>
+    <t>TSet&lt; FObjectReplicator* &gt;* Replicators = GuidToReplicatorMap.Find( NetGuid );</t>
+  </si>
+  <si>
+    <t>if ( Replicators )</t>
+  </si>
+  <si>
+    <t>AllReplicators.Append( *Replicators );</t>
+  </si>
+  <si>
+    <t>for ( FObjectReplicator* Replicator : AllReplicators )</t>
+  </si>
+  <si>
+    <t>if ( UnmappedReplicators.Contains( Replicator ) )</t>
+  </si>
+  <si>
+    <t>bool bHasMoreUnmapped = false;</t>
+  </si>
+  <si>
+    <t>Replicator-&gt;UpdateUnmappedObjects( bHasMoreUnmapped );</t>
+  </si>
+  <si>
+    <t>if ( !bHasMoreUnmapped )</t>
+  </si>
+  <si>
+    <t>UnmappedReplicators.Remove( Replicator );</t>
+  </si>
+  <si>
+    <t>！！！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void FObjectReplicator::UpdateUnmappedObjects(bool &amp; bOutHasMoreUnmapped)</t>
+  </si>
+  <si>
+    <t>FObjectReplicator内部包含其关联的Object对象，例如PlayerController</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>// Since RepNotifies aren't processed while a channel has queued bunches, don't assert in that case.</t>
+  </si>
+  <si>
+    <t>FReceivingRepState* ReceivingRepState = RepState-&gt;GetReceivingRepState();</t>
+  </si>
+  <si>
+    <t>收到的赋值信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LocalRepLayout.UpdateUnmappedObjects(ReceivingRepState, Connection-&gt;PackageMap, Object, Parms, bCalledPreNetReceive, bSomeObjectsWereMapped, bOutHasMoreUnmapped);</t>
+  </si>
+  <si>
+    <t>调用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内部的RepState-&gt;GuidReferencesMap很重要，保存了赋值涉及的信息，后续遍历进行操作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void FRepLayout::UpdateUnmappedObjects_r(</t>
+  </si>
+  <si>
+    <t>Cmd.Property-&gt;NetSerializeItem(Reader, PackageMap, Data + AbsOffset);</t>
+  </si>
+  <si>
+    <t>设置属性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UCLASS(config=Game, notplaceable, BlueprintType, Blueprintable)</t>
+  </si>
+  <si>
+    <t>class ENGINE_API AGameStateBase : public AInfo</t>
+  </si>
+  <si>
+    <t>/** Array of all PlayerStates, maintained on both server and clients (PlayerStates are always relevant) */</t>
+  </si>
+  <si>
+    <t>UPROPERTY(Transient, BlueprintReadOnly, Category=GameState)</t>
+  </si>
+  <si>
+    <t>TArray&lt;APlayerState*&gt; PlayerArray;</t>
+  </si>
+  <si>
+    <t>！！！客户端的GameState里面保存了所有的PlayerState</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成员信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">TArray&lt;APlayerState*&gt; </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlayerArray;</t>
+  </si>
+  <si>
+    <t>成员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在多个地方都保存了PlayerState的变量，例如Controller里面，GameState里面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>将自己加入到GameState中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>！！！缺省的，肯定会加入到GameState中的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>！！！独立模式下</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过网络消息来设置PC里面的PlayerState</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>！！！DS-Client模式下</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void APlayerController::PostInitializeComponents()</t>
+  </si>
+  <si>
+    <t>在PlayerControlller的Post里面创建PlayerState</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>InitPlayerState();</t>
+  </si>
+  <si>
+    <t>PlayerState = World-&gt;SpawnActor&lt;APlayerState&gt;(PlayerStateClassToSpawn, SpawnInfo);</t>
+  </si>
+  <si>
+    <t>角色的Pawn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlayerController内部的SpectatorPawn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/**</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> * SpectatorPawns are simple pawns that can fly around the world, used by</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> * PlayerControllers when in the spectator state.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> */</t>
+  </si>
+  <si>
+    <t>SpectatorPawn是只在特殊状态下使用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过网络协议进行创建，然后是和PlayerController绑定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PC和PAWN怎么联系起来</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在服务器的回调里面将两者关联起来</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void APawn::OnRep_Controller()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>！！！！</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2283,15 +2506,64 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>7893</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>180220</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9ECBFC85-6EAA-FB5A-DABE-64F9123DAB6D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8896350" y="1019175"/>
+          <a:ext cx="13057143" cy="6038095"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>484086</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:row>64</xdr:row>
       <xdr:rowOff>161181</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2328,7 +2600,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -2734,10 +3006,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF8BE456-7A1C-49D1-A2F1-4D79C91A2938}">
-  <dimension ref="B2:R22"/>
+  <dimension ref="B2:R31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="S8" sqref="S8"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2828,13 +3100,61 @@
         <v>202</v>
       </c>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B21" s="7" t="s">
+    <row r="17" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="N17" s="8"/>
+    </row>
+    <row r="18" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="N18" s="8"/>
+    </row>
+    <row r="20" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="C20" s="7" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="21" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="C21" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="N21" s="8"/>
+    </row>
+    <row r="22" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="D22" s="7"/>
+      <c r="N22" s="8"/>
+    </row>
+    <row r="23" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="D23" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="N23" s="8"/>
+    </row>
+    <row r="24" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="D24" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="25" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="D25" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="26" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="D26" t="s">
+        <v>266</v>
+      </c>
+      <c r="J26" t="s">
+        <v>267</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="30" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B30" s="7" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C22" s="7" t="s">
+    <row r="31" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="C31" s="7" t="s">
         <v>187</v>
       </c>
     </row>
@@ -2847,10 +3167,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="B3:P15"/>
+  <dimension ref="B3:P37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q21" sqref="Q21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2860,57 +3180,180 @@
   <sheetData>
     <row r="3" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B3" s="7" t="s">
-        <v>210</v>
+        <v>269</v>
       </c>
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="P4" s="7"/>
+      <c r="B4" s="7">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>189</v>
+      </c>
+      <c r="L4" s="8" t="s">
+        <v>271</v>
+      </c>
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="C5" s="7"/>
+      <c r="D5" s="8" t="s">
+        <v>270</v>
+      </c>
       <c r="P5" s="7"/>
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B6" s="7" t="s">
-        <v>188</v>
-      </c>
+      <c r="D6" t="s">
+        <v>191</v>
+      </c>
+      <c r="P6" s="7"/>
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="C7" t="s">
-        <v>189</v>
-      </c>
+      <c r="P7" s="7"/>
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="D8" s="8" t="s">
-        <v>192</v>
-      </c>
+      <c r="B8" s="7">
+        <v>2</v>
+      </c>
+      <c r="C8" t="s">
+        <v>276</v>
+      </c>
+      <c r="L8" s="8" t="s">
+        <v>272</v>
+      </c>
+      <c r="M8" s="9"/>
+      <c r="N8" s="9"/>
+      <c r="P8" s="7"/>
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="D9" t="s">
-        <v>190</v>
-      </c>
+      <c r="C9" t="s">
+        <v>275</v>
+      </c>
+      <c r="L9" s="9"/>
+      <c r="M9" s="9"/>
+      <c r="N9" s="9"/>
+      <c r="P9" s="7"/>
     </row>
     <row r="10" spans="2:16" x14ac:dyDescent="0.2">
       <c r="D10" t="s">
+        <v>277</v>
+      </c>
+      <c r="L10" s="9"/>
+      <c r="M10" s="9"/>
+      <c r="N10" s="9"/>
+      <c r="P10" s="7"/>
+    </row>
+    <row r="11" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="D11" t="s">
+        <v>278</v>
+      </c>
+      <c r="L11" s="9"/>
+      <c r="M11" s="9"/>
+      <c r="N11" s="9"/>
+      <c r="P11" s="7"/>
+    </row>
+    <row r="12" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="L12" s="9"/>
+      <c r="M12" s="9"/>
+      <c r="N12" s="9"/>
+      <c r="P12" s="7"/>
+    </row>
+    <row r="13" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B13" s="7">
+        <v>3</v>
+      </c>
+      <c r="C13" t="s">
+        <v>273</v>
+      </c>
+      <c r="L13" s="9" t="s">
+        <v>274</v>
+      </c>
+      <c r="M13" s="9"/>
+      <c r="N13" s="9"/>
+      <c r="P13" s="7"/>
+    </row>
+    <row r="14" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="P14" s="7"/>
+    </row>
+    <row r="15" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="P15" s="7"/>
+    </row>
+    <row r="16" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="C16" s="7"/>
+      <c r="P16" s="7"/>
+    </row>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B17" s="7" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="C18" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="D19" s="8" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="D20" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="21" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="D21" t="s">
         <v>29</v>
       </c>
-      <c r="L10" s="7" t="s">
+      <c r="L21" s="7" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="E11" t="s">
+    <row r="22" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="E22" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="12" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="D12" t="s">
+    <row r="23" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="D23" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B15" s="7" t="s">
-        <v>227</v>
+    <row r="26" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B26" s="7" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="31" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B31" s="7" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="32" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B32" s="7" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="34" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C34" s="8" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="35" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C35" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="36" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C36" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="37" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C37" t="s">
+        <v>263</v>
+      </c>
+      <c r="N37" s="7" t="s">
+        <v>264</v>
       </c>
     </row>
   </sheetData>
@@ -2924,7 +3367,7 @@
   <dimension ref="A1:O14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2934,7 +3377,7 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B1" s="8"/>
       <c r="C1" s="8"/>
@@ -2948,7 +3391,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C2" s="8"/>
       <c r="D2" s="8"/>
@@ -2961,7 +3404,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C3" s="8"/>
       <c r="D3" s="8"/>
@@ -2974,7 +3417,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>
@@ -2987,7 +3430,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
@@ -3007,7 +3450,7 @@
       <c r="F6" s="8"/>
       <c r="G6" s="8"/>
       <c r="N6" s="7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
@@ -3019,54 +3462,154 @@
       <c r="F7" s="8"/>
       <c r="G7" s="8"/>
       <c r="N7" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="O8" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="N9" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="O10" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" s="7" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="N11" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="O12" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="N13" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="N14" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72091264-801A-44BE-BAEC-12E75E772F2C}">
+  <dimension ref="B3:G22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J28" sqref="J28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B3" s="7" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B4" s="7" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B5" s="7"/>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B6" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B7" s="8" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>289</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C10" s="7"/>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B17" s="8" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C18" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C19" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C20" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C21" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B22" s="7" t="s">
+        <v>280</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D6F84C0-E9DA-487F-A741-9207390667BC}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -4308,14 +4851,240 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="A2:N53"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K36" sqref="K36"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="9" style="7"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="C2" s="7" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A3" s="7" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N5" s="8" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A7" s="7" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A11" s="7" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="C13" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="C14" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="C16" s="8" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="17" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="D17" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="19" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C19" s="8" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="20" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="D20" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="21" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="D21" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="22" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="E22" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="23" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="E23" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="24" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="E24" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="25" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="F25" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="26" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="E26" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="27" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="D27" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="D28" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="29" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="D29" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="30" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="E30" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="31" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="E31" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="32" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="F32" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="C33" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="F33" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="F34" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="F35" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="36" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="G36" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="F37" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="E38" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="D39" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B41" s="8" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B42" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="C44" s="8" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="C45" s="8" t="s">
+        <v>255</v>
+      </c>
+      <c r="N45" s="7" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="C46" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="C47" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="C48" s="9" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="49" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="C49" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="51" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B51" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="52" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="C52" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="L52" s="7" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="53" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="C53" t="s">
+        <v>257</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/doc/ue_ds_client.xlsx
+++ b/doc/ue_ds_client.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Github\guanzhongdaoke\ue\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEAF6336-87AC-4973-991A-696AD3287D3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FBF63A9-8507-45AC-A6A0-46D2CADC2484}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="759" firstSheet="1" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="759" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="简介" sheetId="9" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="291">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="323">
   <si>
     <t>RPC</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2253,6 +2253,110 @@
   </si>
   <si>
     <t>！！！！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TICK中收包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void UIpNetDriver::TickDispatch(float DeltaTime)</t>
+  </si>
+  <si>
+    <t>Connection-&gt;ReceivedRawPacket((uint8*)ReceivedPacket.DataView.GetData(), ReceivedPacket.DataView.NumBytes());</t>
+  </si>
+  <si>
+    <t>void UIpConnection::ReceivedRawPacket(void* Data, int32 Count)</t>
+  </si>
+  <si>
+    <t>Super::ReceivedRawPacket(Data, Count);</t>
+  </si>
+  <si>
+    <t>void UNetConnection::ReceivedRawPacket( void* InData, int32 Count )</t>
+  </si>
+  <si>
+    <t>// Process all incoming packets</t>
+  </si>
+  <si>
+    <t>for (FPacketIterator It(this); It; ++It)</t>
+  </si>
+  <si>
+    <t>FReceivedPacketView ReceivedPacket;</t>
+  </si>
+  <si>
+    <t>FInPacketTraits&amp; ReceivedTraits = ReceivedPacket.Traits;</t>
+  </si>
+  <si>
+    <t>！！！不断的收包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消息包处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对客户端来说就是收到消息后调用Connect的收包处理；服务器牵扯到握手，做的事情更多</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bool bOk = It.GetCurrentPacket(ReceivedPacket);</t>
+  </si>
+  <si>
+    <t>if (Handler.IsValid())</t>
+  </si>
+  <si>
+    <t>const ProcessedPacket UnProcessedPacket = Handler-&gt;Incoming(Data, Count);</t>
+  </si>
+  <si>
+    <t>ReceivedPacket(Reader);</t>
+  </si>
+  <si>
+    <t>！！！握手阶段的消息包处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>switch (ChType)</t>
+  </si>
+  <si>
+    <t>case CHTYPE_Control:</t>
+  </si>
+  <si>
+    <t>Bunch.ChName = NAME_Control;</t>
+  </si>
+  <si>
+    <t>break;</t>
+  </si>
+  <si>
+    <t>case CHTYPE_Voice:</t>
+  </si>
+  <si>
+    <t>Bunch.ChName = NAME_Voice;</t>
+  </si>
+  <si>
+    <t>case CHTYPE_Actor:</t>
+  </si>
+  <si>
+    <t>Bunch.ChName = NAME_Actor;</t>
+  </si>
+  <si>
+    <t>UChannel* Channel = Channels[Bunch.ChIndex];</t>
+  </si>
+  <si>
+    <t>void UNetConnection::ReceivedPacket( FBitReader&amp; Reader, bool bIsReinjectedPacket)</t>
+  </si>
+  <si>
+    <t>获取对应的channel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Channel-&gt;ReceivedRawBunch( Bunch, bLocalSkipAck ); //warning: May destroy channel.</t>
+  </si>
+  <si>
+    <t>Channel处理消息包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>处理过程</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2440,6 +2544,55 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>214</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>674732</xdr:colOff>
+      <xdr:row>254</xdr:row>
+      <xdr:rowOff>56246</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{121DB67E-154B-2AEB-EF83-BE9D638468FA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6991350" y="38795325"/>
+          <a:ext cx="12342857" cy="7228571"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>619125</xdr:colOff>
       <xdr:row>0</xdr:row>
@@ -2502,7 +2655,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -2551,7 +2704,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -2600,7 +2753,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -3604,7 +3757,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D6F84C0-E9DA-487F-A741-9207390667BC}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData/>
@@ -3956,10 +4109,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A3:W166"/>
+  <dimension ref="A3:W214"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+    <sheetView tabSelected="1" topLeftCell="A196" workbookViewId="0">
+      <selection activeCell="H210" sqref="H210"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4685,40 +4838,253 @@
         <v>155</v>
       </c>
     </row>
-    <row r="161" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="161" spans="2:11" x14ac:dyDescent="0.2">
       <c r="H161" s="8" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="162" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="162" spans="2:11" x14ac:dyDescent="0.2">
       <c r="H162" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="163" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="163" spans="2:11" x14ac:dyDescent="0.2">
       <c r="G163" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="164" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="164" spans="2:11" x14ac:dyDescent="0.2">
       <c r="F164" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="165" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="165" spans="2:11" x14ac:dyDescent="0.2">
       <c r="E165" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="166" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="166" spans="2:11" x14ac:dyDescent="0.2">
       <c r="D166" t="s">
         <v>27</v>
+      </c>
+    </row>
+    <row r="170" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B170" s="7" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="171" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="C171" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="172" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="D172" s="8" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="173" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="D173" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="174" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="D174" t="s">
+        <v>298</v>
+      </c>
+      <c r="K174" s="7" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="175" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="D175" t="s">
+        <v>48</v>
+      </c>
+      <c r="K175" s="7"/>
+    </row>
+    <row r="176" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="E176" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="177" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="E177" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="178" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="E178" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="180" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="E180" s="8" t="s">
+        <v>302</v>
+      </c>
+      <c r="Q180" s="7" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="181" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="E181" t="s">
+        <v>293</v>
+      </c>
+      <c r="Q181" s="7" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="182" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="D182" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q182" s="7"/>
+    </row>
+    <row r="183" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="Q183" s="7"/>
+    </row>
+    <row r="184" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="C184" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="185" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="D185" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="186" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="C186" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="188" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="C188">
+        <v>1</v>
+      </c>
+      <c r="D188" s="7" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="189" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="D189" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="190" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="E190" t="s">
+        <v>306</v>
+      </c>
+      <c r="O190" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="192" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="C192">
+        <v>2</v>
+      </c>
+      <c r="D192" s="8" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="193" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="D193" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="196" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="C196" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="197" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="D197" s="8" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="198" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="D198" t="s">
+        <v>317</v>
+      </c>
+      <c r="M198" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="199" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="M199" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="200" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="D200" s="8" t="s">
+        <v>321</v>
+      </c>
+      <c r="N200" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="201" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="D201" t="s">
+        <v>320</v>
+      </c>
+      <c r="O201" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="202" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O202" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="203" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="N203" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="204" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O204" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="205" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O205" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="206" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="N206" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="207" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O207" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="208" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O208" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="209" spans="11:14" x14ac:dyDescent="0.2">
+      <c r="N209" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="210" spans="11:14" x14ac:dyDescent="0.2">
+      <c r="M210" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="214" spans="11:14" x14ac:dyDescent="0.2">
+      <c r="K214" s="7" t="s">
+        <v>322</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/doc/ue_ds_client.xlsx
+++ b/doc/ue_ds_client.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Github\guanzhongdaoke\ue\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FBF63A9-8507-45AC-A6A0-46D2CADC2484}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{244D08D5-C3CE-4A93-8208-3CB7EB63A65C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="759" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="326">
   <si>
     <t>RPC</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2357,6 +2357,18 @@
   </si>
   <si>
     <t>处理过程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在Incoming中判断是否为服务器的challenge Ack消息包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果是调用Initialized();</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内部会触发事件回调，调用SendInialJoin</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4111,8 +4123,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A3:W214"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A196" workbookViewId="0">
-      <selection activeCell="H210" sqref="H210"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4121,7 +4133,7 @@
     <col min="18" max="18" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
         <v>54</v>
       </c>
@@ -4129,55 +4141,58 @@
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="7"/>
       <c r="B4"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="7"/>
       <c r="B5"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
         <v>161</v>
       </c>
       <c r="B6"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="7"/>
       <c r="B7" s="8" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="7"/>
       <c r="B8" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="7"/>
       <c r="B9"/>
       <c r="C9" s="8" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="7"/>
       <c r="B10"/>
       <c r="C10" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="7"/>
       <c r="B11"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="7"/>
       <c r="B12"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="L12" s="8" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" s="7"/>
       <c r="B13" s="7" t="s">
         <v>99</v>
@@ -4185,22 +4200,31 @@
       <c r="C13" s="8" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="L13" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" s="7"/>
       <c r="B14"/>
       <c r="C14" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="M14" s="8" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" s="7"/>
       <c r="B15"/>
       <c r="D15" s="8" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="M15" s="9" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" s="7"/>
       <c r="B16"/>
     </row>
@@ -5092,8 +5116,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A4:I44"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="H53" sqref="H53"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/doc/ue_ds_client.xlsx
+++ b/doc/ue_ds_client.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Github\guanzhongdaoke\ue\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{244D08D5-C3CE-4A93-8208-3CB7EB63A65C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FBB5BEB-BD36-4D32-AA08-56226D9D2034}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="759" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="849" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="简介" sheetId="9" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
+    <sheet name="Role&amp;RemoteRole" sheetId="2" r:id="rId3"/>
     <sheet name="地图切换流程" sheetId="3" r:id="rId4"/>
     <sheet name="握手" sheetId="7" r:id="rId5"/>
     <sheet name="连接流程" sheetId="6" r:id="rId6"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="326">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="353">
   <si>
     <t>RPC</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -609,6 +609,971 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>https://zhuanlan.zhihu.com/p/344099596</t>
+  </si>
+  <si>
+    <t>https://zhuanlan.zhihu.com/p/343847343</t>
+  </si>
+  <si>
+    <t>void FEngineLoop::Tick()</t>
+  </si>
+  <si>
+    <t>GEngine-&gt;Tick(FApp::GetDeltaTime(), bIdleMode);</t>
+  </si>
+  <si>
+    <t>void UGameEngine::Tick( float DeltaSeconds, bool bIdleMode )</t>
+  </si>
+  <si>
+    <t>for (int32 WorldIdx = 0; WorldIdx &lt; WorldList.Num(); ++WorldIdx)</t>
+  </si>
+  <si>
+    <t>//main game engine tick (world, game objects, etc.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FWorldContext &amp;Context = WorldList[WorldIdx];</t>
+  </si>
+  <si>
+    <t>GWorld = Context.World();</t>
+  </si>
+  <si>
+    <t>{</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>！！！设置为GWorld</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TickWorldTravel(Context, DeltaSeconds);</t>
+  </si>
+  <si>
+    <t>void UEngine::TickWorldTravel(FWorldContext&amp; Context, float DeltaSeconds)</t>
+  </si>
+  <si>
+    <t>CMD：open 127.0.0.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>连接本地DS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>例如CMD：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>open 127.0.0.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>if (Browse( Context, FURL(&amp;Context.LastURL,*TravelURLCopy,(ETravelType)Context.TravelType), Error ) == EBrowseReturnVal::Failure)</t>
+  </si>
+  <si>
+    <t>EBrowseReturnVal::Type UEngine::Browse( FWorldContext&amp; WorldContext, FURL URL, FString&amp; Error )</t>
+  </si>
+  <si>
+    <t>if( URL.IsLocalInternal() )</t>
+  </si>
+  <si>
+    <t>return LoadMap( WorldContext, URL, NULL, Error ) ? EBrowseReturnVal::Success : EBrowseReturnVal::Failure;</t>
+  </si>
+  <si>
+    <t>本地的模式，直接加载地图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>else if( URL.IsInternal() &amp;&amp; GIsClient )</t>
+  </si>
+  <si>
+    <t>销毁当前的PendingNetGame</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>if( WorldContext.PendingNetGame )</t>
+  </si>
+  <si>
+    <t>CancelPending(WorldContext);</t>
+  </si>
+  <si>
+    <t>// Network URL.</t>
+  </si>
+  <si>
+    <t>// Clean up the netdriver/socket so that the pending level succeeds</t>
+  </si>
+  <si>
+    <t>if (WorldContext.World() &amp;&amp; ShouldShutdownWorldNetDriver())</t>
+  </si>
+  <si>
+    <t>ShutdownWorldNetDriver(WorldContext.World());</t>
+  </si>
+  <si>
+    <t>销毁NetDriver</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WorldContext.PendingNetGame = NewObject&lt;UPendingNetGame&gt;();</t>
+  </si>
+  <si>
+    <t>WorldContext.PendingNetGame-&gt;Initialize(URL); //-V595</t>
+  </si>
+  <si>
+    <t>WorldContext.PendingNetGame-&gt;InitNetDriver(); //-V595</t>
+  </si>
+  <si>
+    <t>发起握手流程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建PendingNetGame，所谓WorldContext对象</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建NetDriver</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void UPendingNetGame::InitNetDriver()</t>
+  </si>
+  <si>
+    <t>// Try to create network driver.</t>
+  </si>
+  <si>
+    <t>if (GEngine-&gt;CreateNamedNetDriver(this, NAME_PendingNetDriver, NAME_GameNetDriver))</t>
+  </si>
+  <si>
+    <t>NetDriver = GEngine-&gt;FindNamedNetDriver(this, NAME_PendingNetDriver);</t>
+  </si>
+  <si>
+    <t>创建NetDriver</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建和初始化NetDriver</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>if( NetDriver-&gt;InitConnect( this, URL, ConnectionError ) )</t>
+  </si>
+  <si>
+    <t>初始化Connect</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bool UIpNetDriver::InitConnect( FNetworkNotify* InNotify, const FURL&amp; ConnectURL, FString&amp; Error )</t>
+  </si>
+  <si>
+    <t>ServerConnection = NewObject&lt;UNetConnection&gt;(GetTransientPackage(), NetConnectionClass);</t>
+  </si>
+  <si>
+    <t>UIpConnection* IPConnection = CastChecked&lt;UIpConnection&gt;(ServerConnection);</t>
+  </si>
+  <si>
+    <t>创建NetConnection，默认就是ipconnection</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>if( !InitBase( true, InNotify, ConnectURL, false, Error ) )</t>
+  </si>
+  <si>
+    <t>内部创建和绑定SOCKET</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>！！！SOCKET绑定在这个地方</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>！！！这个里面会设置UDP得发送接收缓冲区，这个对UDP没用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CreateInitialClientChannels();</t>
+  </si>
+  <si>
+    <t>UNetConnection</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TArray&lt;UChannel*&gt; Channels;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通道列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1：ContorlChannel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2：VoiceChannel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初始化客户端Channels；这个时候只有两个</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>！！！！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>！！！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初始化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TICK中更新发包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>if( Context.PendingNetGame )</t>
+  </si>
+  <si>
+    <t>}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Context.PendingNetGame-&gt;Tick( DeltaSeconds );</t>
+  </si>
+  <si>
+    <t>void UPendingNetGame::Tick( float DeltaTime )</t>
+  </si>
+  <si>
+    <t>NetDriver-&gt;TickDispatch(DeltaTime);</t>
+  </si>
+  <si>
+    <t>if (NetDriver)</t>
+  </si>
+  <si>
+    <t>NetDriver-&gt;PostTickDispatch();</t>
+  </si>
+  <si>
+    <t>NetDriver-&gt;TickFlush(DeltaTime);</t>
+  </si>
+  <si>
+    <t>NetDriver-&gt;PostTickFlush();</t>
+  </si>
+  <si>
+    <t>这个里面发包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void UNetDriver::TickFlush(float DeltaSeconds)</t>
+  </si>
+  <si>
+    <t>// Poll all sockets.</t>
+  </si>
+  <si>
+    <t>if( ServerConnection )</t>
+  </si>
+  <si>
+    <t>// Queue client voice packets in the server's voice channel</t>
+  </si>
+  <si>
+    <t>ProcessLocalClientPackets();</t>
+  </si>
+  <si>
+    <t>ServerConnection-&gt;Tick(DeltaSeconds);</t>
+  </si>
+  <si>
+    <t>void UIpConnection::Tick(float DeltaSeconds)</t>
+  </si>
+  <si>
+    <t>里面不断的判断ResolutionState</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>if (ResolutionState == EAddressResolutionState::TryNextAddress)</t>
+  </si>
+  <si>
+    <t>ResolutionState = EAddressResolutionState::Connecting;</t>
+  </si>
+  <si>
+    <t>else if (ResolutionState == EAddressResolutionState::Connected)</t>
+  </si>
+  <si>
+    <t>ResolutionState = EAddressResolutionState::Done;</t>
+  </si>
+  <si>
+    <t>else if (ResolutionState == EAddressResolutionState::Error)</t>
+  </si>
+  <si>
+    <t>！！！注意，这里没有判断Connecting</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Super::Tick(DeltaSeconds);</t>
+  </si>
+  <si>
+    <t>继续父类的判断</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void UNetConnection::Tick(float DeltaSeconds)</t>
+  </si>
+  <si>
+    <t>Handler-&gt;Tick(FrameTime);</t>
+  </si>
+  <si>
+    <t>void PacketHandler::Tick(float DeltaTime)</t>
+  </si>
+  <si>
+    <t>for (const TSharedPtr&lt;HandlerComponent&gt;&amp; Component : HandlerComponents)</t>
+  </si>
+  <si>
+    <t>if (Component.IsValid())</t>
+  </si>
+  <si>
+    <t>Component-&gt;Tick(DeltaTime);</t>
+  </si>
+  <si>
+    <t>！！！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>StatelessConnectHandlerComponent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void StatelessConnectHandlerComponent::Tick(float DeltaTime)</t>
+  </si>
+  <si>
+    <t>if (Handler-&gt;Mode == Handler::Mode::Client)</t>
+  </si>
+  <si>
+    <t>if (State != Handler::Component::State::Initialized &amp;&amp; LastClientSendTimestamp != 0.0)</t>
+  </si>
+  <si>
+    <t>double LastSendTimeDiff = FPlatformTime::Seconds() - LastClientSendTimestamp;</t>
+  </si>
+  <si>
+    <t>if (LastSendTimeDiff &gt; 1.0)</t>
+  </si>
+  <si>
+    <t>const bool bRestartChallenge = Driver != nullptr &amp;&amp; ((Driver-&gt;GetElapsedTime() - LastChallengeTimestamp) &gt; MIN_COOKIE_LIFETIME);</t>
+  </si>
+  <si>
+    <t>if (bRestartChallenge)</t>
+  </si>
+  <si>
+    <t>SetState(Handler::Component::State::UnInitialized);</t>
+  </si>
+  <si>
+    <t>if (State == Handler::Component::State::UnInitialized)</t>
+  </si>
+  <si>
+    <t>UE_LOG(LogHandshake, Verbose, TEXT("Initial handshake packet timeout - resending."));</t>
+  </si>
+  <si>
+    <t>NotifyHandshakeBegin();</t>
+  </si>
+  <si>
+    <t>else if (State == Handler::Component::State::InitializedOnLocal &amp;&amp; LastTimestamp != 0.0)</t>
+  </si>
+  <si>
+    <t>UE_LOG(LogHandshake, Verbose, TEXT("Challenge response packet timeout - resending."));</t>
+  </si>
+  <si>
+    <t>SendChallengeResponse(LastSecretId, LastTimestamp, LastCookie);</t>
+  </si>
+  <si>
+    <t>有超时机制，有状态机制，按照状态进行发包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>超时判断，这块真叼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发送开始握手包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">发送反馈包 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务器返回消息包处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>握手包的返回处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据Timestamp设置不同的状态，发不同的反馈包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回ChallengeResponse</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注意，收到challenge ack之后就Initialized</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>然后到void UPendingNetGame::SendInitialJoin()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发送NMT_Hello消息包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void StatelessConnectHandlerComponent::Incoming(FBitReader&amp; Packet)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>连接流程：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>跳转场景</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LoadMap</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>// Update the pending level.</t>
+  </si>
+  <si>
+    <t>注意，这个地方就是看的UPendingNetGame对象</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>！！！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>const bool bLoadedMapSuccessfully = LoadMap(Context, Context.PendingNetGame-&gt;URL, Context.PendingNetGame, Error);</t>
+  </si>
+  <si>
+    <t>加载目标地图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>if (Context.PendingNetGame &amp;&amp; Context.PendingNetGame-&gt;bSuccessfullyConnected &amp;&amp; !Context.PendingNetGame-&gt;bSentJoinRequest &amp;&amp; (Context.OwningGameInstance == NULL || !Context.OwningGameInstance-&gt;DelayPendingNetGameTravel()))</t>
+  </si>
+  <si>
+    <t>条件判断</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在PendingNetGame.cpp收到消息包NMT_Welcome后设置URL和bSuccessfullyConnected</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Context.PendingNetGame-&gt;LoadMapCompleted(this, Context, bLoadedMapSuccessfully, Error);</t>
+  </si>
+  <si>
+    <t>加载完地图的成功回调</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void UPendingNetGame::LoadMapCompleted(UEngine* Engine, FWorldContext&amp; Context, bool bLoadedMapSuccessfully, const FString&amp; LoadMapError)</t>
+  </si>
+  <si>
+    <t>Context.PendingNetGame-&gt;SendJoin();</t>
+  </si>
+  <si>
+    <t>发送Join消息包？？？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在DS-Client模式下，客户端没有该类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户端创建</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>！！！！注意，仅仅是这个地方不依赖于GameMode创建了，但是会通过协议让客户端创建</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>会通过网络协议创建</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void APlayerState::PostInitializeComponents()</t>
+  </si>
+  <si>
+    <t>if (GameStateBase != nullptr )</t>
+  </si>
+  <si>
+    <t>GameStateBase-&gt;AddPlayerState(this);</t>
+  </si>
+  <si>
+    <t>和现有的gameState绑定，GameState也是通过服务器创建的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>！！！何时和PlayerController挂钩的？？？？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其从属于World，是World的一个变量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UCLASS(customConstructor, config=Engine)</t>
+  </si>
+  <si>
+    <t>class ENGINE_API UWorld final : public UObject, public FNetworkNotify</t>
+  </si>
+  <si>
+    <t>成员变量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/** The NAME_GameNetDriver game connection(s) for client/server communication */</t>
+  </si>
+  <si>
+    <t>UPROPERTY(Transient)</t>
+  </si>
+  <si>
+    <t>class UNetDriver*</t>
+  </si>
+  <si>
+    <t>NetDriver;</t>
+  </si>
+  <si>
+    <t>！！！从属于World</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/** The current GameMode, valid only on the server */</t>
+  </si>
+  <si>
+    <t>class AGameModeBase*</t>
+  </si>
+  <si>
+    <t>AuthorityGameMode;</t>
+  </si>
+  <si>
+    <t>/** The replicated actor which contains game state information that can be accessible to clients. Direct access is not allowed, use GetGameState&lt;&gt;() */</t>
+  </si>
+  <si>
+    <t>class AGameStateBase*</t>
+  </si>
+  <si>
+    <t>GameState;</t>
+  </si>
+  <si>
+    <t>客户端模式下没有，主要进行PreLogin和Login等判断的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>该流程会释放LocalPlayer身上的PlayerController；重新和新的PlayerController绑定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void UActorChannel::ReceivedBunch( FInBunch &amp; Bunch )</t>
+  </si>
+  <si>
+    <t>ProcessBunch(Bunch);</t>
+  </si>
+  <si>
+    <t>void UActorChannel::ProcessBunch( FInBunch &amp; Bunch )</t>
+  </si>
+  <si>
+    <t>NotifyActorChannelOpen(Actor, Bunch);</t>
+  </si>
+  <si>
+    <t>void UActorChannel::NotifyActorChannelOpen(AActor* InActor, FInBunch&amp; InBunch)</t>
+  </si>
+  <si>
+    <t>Actor-&gt;OnActorChannelOpen(InBunch, Connection);</t>
+  </si>
+  <si>
+    <t>void APlayerController::OnActorChannelOpen(FInBunch&amp; InBunch, UNetConnection* Connection)</t>
+  </si>
+  <si>
+    <t>void UNetConnection::HandleClientPlayer( APlayerController *PC, UNetConnection* NetConnection )</t>
+  </si>
+  <si>
+    <t>何时创建自己的PlayerController???</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主要问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>别的玩家会创建吗？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlayerState和PlayerController怎么结合？？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>何时创建对应的PAWN？？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlayerController是针对玩家自己的，所以只会为自己创建，别的玩家不是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>！！！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自己和别人的PlayerState都会同步到每一个客户端</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DS和客户端的同步</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>例如通过消息，设置客户端的PlayerController中的PlayerState</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不仅仅是包含属性设置，包括对象赋值也是（对象本地会通过协议先创建，然后通过反射设置）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>// Go over recently imported network guids, and see if there are any replicators that need to map them</t>
+  </si>
+  <si>
+    <t>TSet&lt; FNetworkGUID &gt;&amp; ImportedNetGuids = GuidCache-&gt;ImportedNetGuids;</t>
+  </si>
+  <si>
+    <t>NewlyMappedGuids.Add( NetworkGuid );</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>插入到NewlyMappedGuids</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>遍历NewlyMappedGuids，从GuidToReplicatorMap找到对应的FObjectReplicator，放入列表AllReplicators</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>for ( const FNetworkGUID&amp; NetGuid : NewlyMappedGuids )</t>
+  </si>
+  <si>
+    <t>TSet&lt; FObjectReplicator* &gt;* Replicators = GuidToReplicatorMap.Find( NetGuid );</t>
+  </si>
+  <si>
+    <t>if ( Replicators )</t>
+  </si>
+  <si>
+    <t>AllReplicators.Append( *Replicators );</t>
+  </si>
+  <si>
+    <t>for ( FObjectReplicator* Replicator : AllReplicators )</t>
+  </si>
+  <si>
+    <t>if ( UnmappedReplicators.Contains( Replicator ) )</t>
+  </si>
+  <si>
+    <t>bool bHasMoreUnmapped = false;</t>
+  </si>
+  <si>
+    <t>Replicator-&gt;UpdateUnmappedObjects( bHasMoreUnmapped );</t>
+  </si>
+  <si>
+    <t>if ( !bHasMoreUnmapped )</t>
+  </si>
+  <si>
+    <t>UnmappedReplicators.Remove( Replicator );</t>
+  </si>
+  <si>
+    <t>！！！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void FObjectReplicator::UpdateUnmappedObjects(bool &amp; bOutHasMoreUnmapped)</t>
+  </si>
+  <si>
+    <t>FObjectReplicator内部包含其关联的Object对象，例如PlayerController</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>// Since RepNotifies aren't processed while a channel has queued bunches, don't assert in that case.</t>
+  </si>
+  <si>
+    <t>FReceivingRepState* ReceivingRepState = RepState-&gt;GetReceivingRepState();</t>
+  </si>
+  <si>
+    <t>收到的赋值信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LocalRepLayout.UpdateUnmappedObjects(ReceivingRepState, Connection-&gt;PackageMap, Object, Parms, bCalledPreNetReceive, bSomeObjectsWereMapped, bOutHasMoreUnmapped);</t>
+  </si>
+  <si>
+    <t>调用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内部的RepState-&gt;GuidReferencesMap很重要，保存了赋值涉及的信息，后续遍历进行操作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void FRepLayout::UpdateUnmappedObjects_r(</t>
+  </si>
+  <si>
+    <t>Cmd.Property-&gt;NetSerializeItem(Reader, PackageMap, Data + AbsOffset);</t>
+  </si>
+  <si>
+    <t>设置属性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UCLASS(config=Game, notplaceable, BlueprintType, Blueprintable)</t>
+  </si>
+  <si>
+    <t>class ENGINE_API AGameStateBase : public AInfo</t>
+  </si>
+  <si>
+    <t>/** Array of all PlayerStates, maintained on both server and clients (PlayerStates are always relevant) */</t>
+  </si>
+  <si>
+    <t>UPROPERTY(Transient, BlueprintReadOnly, Category=GameState)</t>
+  </si>
+  <si>
+    <t>TArray&lt;APlayerState*&gt; PlayerArray;</t>
+  </si>
+  <si>
+    <t>！！！客户端的GameState里面保存了所有的PlayerState</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成员信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">TArray&lt;APlayerState*&gt; </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlayerArray;</t>
+  </si>
+  <si>
+    <t>成员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在多个地方都保存了PlayerState的变量，例如Controller里面，GameState里面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>将自己加入到GameState中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>！！！缺省的，肯定会加入到GameState中的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>！！！独立模式下</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过网络消息来设置PC里面的PlayerState</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>！！！DS-Client模式下</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void APlayerController::PostInitializeComponents()</t>
+  </si>
+  <si>
+    <t>在PlayerControlller的Post里面创建PlayerState</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>InitPlayerState();</t>
+  </si>
+  <si>
+    <t>PlayerState = World-&gt;SpawnActor&lt;APlayerState&gt;(PlayerStateClassToSpawn, SpawnInfo);</t>
+  </si>
+  <si>
+    <t>角色的Pawn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlayerController内部的SpectatorPawn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/**</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> * SpectatorPawns are simple pawns that can fly around the world, used by</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> * PlayerControllers when in the spectator state.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> */</t>
+  </si>
+  <si>
+    <t>SpectatorPawn是只在特殊状态下使用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过网络协议进行创建，然后是和PlayerController绑定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PC和PAWN怎么联系起来</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在服务器的回调里面将两者关联起来</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void APawn::OnRep_Controller()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>！！！！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TICK中收包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void UIpNetDriver::TickDispatch(float DeltaTime)</t>
+  </si>
+  <si>
+    <t>Connection-&gt;ReceivedRawPacket((uint8*)ReceivedPacket.DataView.GetData(), ReceivedPacket.DataView.NumBytes());</t>
+  </si>
+  <si>
+    <t>void UIpConnection::ReceivedRawPacket(void* Data, int32 Count)</t>
+  </si>
+  <si>
+    <t>Super::ReceivedRawPacket(Data, Count);</t>
+  </si>
+  <si>
+    <t>void UNetConnection::ReceivedRawPacket( void* InData, int32 Count )</t>
+  </si>
+  <si>
+    <t>// Process all incoming packets</t>
+  </si>
+  <si>
+    <t>for (FPacketIterator It(this); It; ++It)</t>
+  </si>
+  <si>
+    <t>FReceivedPacketView ReceivedPacket;</t>
+  </si>
+  <si>
+    <t>FInPacketTraits&amp; ReceivedTraits = ReceivedPacket.Traits;</t>
+  </si>
+  <si>
+    <t>！！！不断的收包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消息包处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对客户端来说就是收到消息后调用Connect的收包处理；服务器牵扯到握手，做的事情更多</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bool bOk = It.GetCurrentPacket(ReceivedPacket);</t>
+  </si>
+  <si>
+    <t>if (Handler.IsValid())</t>
+  </si>
+  <si>
+    <t>const ProcessedPacket UnProcessedPacket = Handler-&gt;Incoming(Data, Count);</t>
+  </si>
+  <si>
+    <t>ReceivedPacket(Reader);</t>
+  </si>
+  <si>
+    <t>！！！握手阶段的消息包处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>switch (ChType)</t>
+  </si>
+  <si>
+    <t>case CHTYPE_Control:</t>
+  </si>
+  <si>
+    <t>Bunch.ChName = NAME_Control;</t>
+  </si>
+  <si>
+    <t>break;</t>
+  </si>
+  <si>
+    <t>case CHTYPE_Voice:</t>
+  </si>
+  <si>
+    <t>Bunch.ChName = NAME_Voice;</t>
+  </si>
+  <si>
+    <t>case CHTYPE_Actor:</t>
+  </si>
+  <si>
+    <t>Bunch.ChName = NAME_Actor;</t>
+  </si>
+  <si>
+    <t>UChannel* Channel = Channels[Bunch.ChIndex];</t>
+  </si>
+  <si>
+    <t>void UNetConnection::ReceivedPacket( FBitReader&amp; Reader, bool bIsReinjectedPacket)</t>
+  </si>
+  <si>
+    <t>获取对应的channel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Channel-&gt;ReceivedRawBunch( Bunch, bLocalSkipAck ); //warning: May destroy channel.</t>
+  </si>
+  <si>
+    <t>Channel处理消息包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>处理过程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在Incoming中判断是否为服务器的challenge Ack消息包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果是调用Initialized();</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内部会触发事件回调，调用SendInialJoin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="13.2"/>
@@ -894,9 +1859,49 @@
       <rPr>
         <sz val="13.2"/>
         <color rgb="FF121212"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>“</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.2"/>
+        <color rgb="FF121212"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>权威</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.2"/>
+        <color rgb="FF121212"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
+      <t>A”</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.2"/>
+        <color rgb="FF121212"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.2"/>
+        <color rgb="FF121212"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
       <t>“</t>
     </r>
     <r>
@@ -916,7 +1921,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>A”</t>
+      <t>B”</t>
     </r>
     <r>
       <rPr>
@@ -926,7 +1931,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>，</t>
+      <t>，对于</t>
     </r>
     <r>
       <rPr>
@@ -935,7 +1940,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>“</t>
+      <t>A</t>
     </r>
     <r>
       <rPr>
@@ -945,7 +1950,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>权威</t>
+      <t>和</t>
     </r>
     <r>
       <rPr>
@@ -954,7 +1959,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>B”</t>
+      <t>B</t>
     </r>
     <r>
       <rPr>
@@ -964,16 +1969,17 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>，对于</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13.2"/>
-        <color rgb="FF121212"/>
-        <rFont val="Arial"/>
+      <t>来说，它们对自己的权限为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.2"/>
+        <color rgb="FF121212"/>
+        <rFont val="等线"/>
         <family val="2"/>
-      </rPr>
-      <t>A</t>
+        <charset val="134"/>
+      </rPr>
+      <t>“</t>
     </r>
     <r>
       <rPr>
@@ -983,16 +1989,17 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>和</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13.2"/>
-        <color rgb="FF121212"/>
-        <rFont val="Arial"/>
+      <t>主控</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.2"/>
+        <color rgb="FF121212"/>
+        <rFont val="等线"/>
         <family val="2"/>
-      </rPr>
-      <t>B</t>
+        <charset val="134"/>
+      </rPr>
+      <t>”</t>
     </r>
     <r>
       <rPr>
@@ -1002,14 +2009,15 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>来说，它们对自己的权限为</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13.2"/>
-        <color rgb="FF121212"/>
-        <rFont val="Arial"/>
+      <t>，对另一方的权限为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.2"/>
+        <color rgb="FF121212"/>
+        <rFont val="等线"/>
         <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>“</t>
     </r>
@@ -1021,52 +2029,15 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>主控</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13.2"/>
-        <color rgb="FF121212"/>
-        <rFont val="Arial"/>
+      <t>模拟</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.2"/>
+        <color rgb="FF121212"/>
+        <rFont val="等线"/>
         <family val="2"/>
-      </rPr>
-      <t>”</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13.2"/>
-        <color rgb="FF121212"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
-      </rPr>
-      <t>，对另一方的权限为</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13.2"/>
-        <color rgb="FF121212"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>“</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13.2"/>
-        <color rgb="FF121212"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>模拟</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13.2"/>
-        <color rgb="FF121212"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
       </rPr>
       <t>”</t>
     </r>
@@ -1384,991 +2355,111 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>https://zhuanlan.zhihu.com/p/344099596</t>
-  </si>
-  <si>
-    <t>https://zhuanlan.zhihu.com/p/343847343</t>
-  </si>
-  <si>
-    <t>void FEngineLoop::Tick()</t>
-  </si>
-  <si>
-    <t>GEngine-&gt;Tick(FApp::GetDeltaTime(), bIdleMode);</t>
-  </si>
-  <si>
-    <t>void UGameEngine::Tick( float DeltaSeconds, bool bIdleMode )</t>
-  </si>
-  <si>
-    <t>for (int32 WorldIdx = 0; WorldIdx &lt; WorldList.Num(); ++WorldIdx)</t>
-  </si>
-  <si>
-    <t>//main game engine tick (world, game objects, etc.)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FWorldContext &amp;Context = WorldList[WorldIdx];</t>
-  </si>
-  <si>
-    <t>GWorld = Context.World();</t>
-  </si>
-  <si>
-    <t>{</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>！！！设置为GWorld</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TickWorldTravel(Context, DeltaSeconds);</t>
-  </si>
-  <si>
-    <t>void UEngine::TickWorldTravel(FWorldContext&amp; Context, float DeltaSeconds)</t>
-  </si>
-  <si>
-    <t>CMD：open 127.0.0.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>连接本地DS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>例如CMD：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>open 127.0.0.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>if (Browse( Context, FURL(&amp;Context.LastURL,*TravelURLCopy,(ETravelType)Context.TravelType), Error ) == EBrowseReturnVal::Failure)</t>
-  </si>
-  <si>
-    <t>EBrowseReturnVal::Type UEngine::Browse( FWorldContext&amp; WorldContext, FURL URL, FString&amp; Error )</t>
-  </si>
-  <si>
-    <t>if( URL.IsLocalInternal() )</t>
-  </si>
-  <si>
-    <t>return LoadMap( WorldContext, URL, NULL, Error ) ? EBrowseReturnVal::Success : EBrowseReturnVal::Failure;</t>
-  </si>
-  <si>
-    <t>本地的模式，直接加载地图</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>else if( URL.IsInternal() &amp;&amp; GIsClient )</t>
-  </si>
-  <si>
-    <t>销毁当前的PendingNetGame</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>if( WorldContext.PendingNetGame )</t>
-  </si>
-  <si>
-    <t>CancelPending(WorldContext);</t>
-  </si>
-  <si>
-    <t>// Network URL.</t>
-  </si>
-  <si>
-    <t>// Clean up the netdriver/socket so that the pending level succeeds</t>
-  </si>
-  <si>
-    <t>if (WorldContext.World() &amp;&amp; ShouldShutdownWorldNetDriver())</t>
-  </si>
-  <si>
-    <t>ShutdownWorldNetDriver(WorldContext.World());</t>
-  </si>
-  <si>
-    <t>销毁NetDriver</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>WorldContext.PendingNetGame = NewObject&lt;UPendingNetGame&gt;();</t>
-  </si>
-  <si>
-    <t>WorldContext.PendingNetGame-&gt;Initialize(URL); //-V595</t>
-  </si>
-  <si>
-    <t>WorldContext.PendingNetGame-&gt;InitNetDriver(); //-V595</t>
-  </si>
-  <si>
-    <t>发起握手流程</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>创建PendingNetGame，所谓WorldContext对象</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>创建NetDriver</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>void UPendingNetGame::InitNetDriver()</t>
-  </si>
-  <si>
-    <t>// Try to create network driver.</t>
-  </si>
-  <si>
-    <t>if (GEngine-&gt;CreateNamedNetDriver(this, NAME_PendingNetDriver, NAME_GameNetDriver))</t>
-  </si>
-  <si>
-    <t>NetDriver = GEngine-&gt;FindNamedNetDriver(this, NAME_PendingNetDriver);</t>
-  </si>
-  <si>
-    <t>创建NetDriver</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>创建和初始化NetDriver</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>if( NetDriver-&gt;InitConnect( this, URL, ConnectionError ) )</t>
-  </si>
-  <si>
-    <t>初始化Connect</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bool UIpNetDriver::InitConnect( FNetworkNotify* InNotify, const FURL&amp; ConnectURL, FString&amp; Error )</t>
-  </si>
-  <si>
-    <t>ServerConnection = NewObject&lt;UNetConnection&gt;(GetTransientPackage(), NetConnectionClass);</t>
-  </si>
-  <si>
-    <t>UIpConnection* IPConnection = CastChecked&lt;UIpConnection&gt;(ServerConnection);</t>
-  </si>
-  <si>
-    <t>创建NetConnection，默认就是ipconnection</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>if( !InitBase( true, InNotify, ConnectURL, false, Error ) )</t>
-  </si>
-  <si>
-    <t>内部创建和绑定SOCKET</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>！！！SOCKET绑定在这个地方</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>！！！这个里面会设置UDP得发送接收缓冲区，这个对UDP没用</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CreateInitialClientChannels();</t>
-  </si>
-  <si>
-    <t>UNetConnection</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TArray&lt;UChannel*&gt; Channels;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>通道列表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1：ContorlChannel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2：VoiceChannel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>初始化客户端Channels；这个时候只有两个</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>！！！！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>分为握手和登录Join</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>握手</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>相关广播事件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>登录Join</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>相关广播事件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>StatelessConnectHandlerComponent</t>
-  </si>
-  <si>
-    <t>！！！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>初始化</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TICK中更新发包</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>if( Context.PendingNetGame )</t>
-  </si>
-  <si>
-    <t>}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Context.PendingNetGame-&gt;Tick( DeltaSeconds );</t>
-  </si>
-  <si>
-    <t>void UPendingNetGame::Tick( float DeltaTime )</t>
-  </si>
-  <si>
-    <t>NetDriver-&gt;TickDispatch(DeltaTime);</t>
-  </si>
-  <si>
-    <t>if (NetDriver)</t>
-  </si>
-  <si>
-    <t>NetDriver-&gt;PostTickDispatch();</t>
-  </si>
-  <si>
-    <t>NetDriver-&gt;TickFlush(DeltaTime);</t>
-  </si>
-  <si>
-    <t>NetDriver-&gt;PostTickFlush();</t>
-  </si>
-  <si>
-    <t>这个里面发包</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>void UNetDriver::TickFlush(float DeltaSeconds)</t>
-  </si>
-  <si>
-    <t>// Poll all sockets.</t>
-  </si>
-  <si>
-    <t>if( ServerConnection )</t>
-  </si>
-  <si>
-    <t>// Queue client voice packets in the server's voice channel</t>
-  </si>
-  <si>
-    <t>ProcessLocalClientPackets();</t>
-  </si>
-  <si>
-    <t>ServerConnection-&gt;Tick(DeltaSeconds);</t>
-  </si>
-  <si>
-    <t>void UIpConnection::Tick(float DeltaSeconds)</t>
-  </si>
-  <si>
-    <t>里面不断的判断ResolutionState</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>if (ResolutionState == EAddressResolutionState::TryNextAddress)</t>
-  </si>
-  <si>
-    <t>ResolutionState = EAddressResolutionState::Connecting;</t>
-  </si>
-  <si>
-    <t>else if (ResolutionState == EAddressResolutionState::Connected)</t>
-  </si>
-  <si>
-    <t>ResolutionState = EAddressResolutionState::Done;</t>
-  </si>
-  <si>
-    <t>else if (ResolutionState == EAddressResolutionState::Error)</t>
-  </si>
-  <si>
-    <t>！！！注意，这里没有判断Connecting</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Super::Tick(DeltaSeconds);</t>
-  </si>
-  <si>
-    <t>继续父类的判断</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>void UNetConnection::Tick(float DeltaSeconds)</t>
-  </si>
-  <si>
-    <t>Handler-&gt;Tick(FrameTime);</t>
-  </si>
-  <si>
-    <t>void PacketHandler::Tick(float DeltaTime)</t>
-  </si>
-  <si>
-    <t>for (const TSharedPtr&lt;HandlerComponent&gt;&amp; Component : HandlerComponents)</t>
-  </si>
-  <si>
-    <t>if (Component.IsValid())</t>
-  </si>
-  <si>
-    <t>Component-&gt;Tick(DeltaTime);</t>
-  </si>
-  <si>
-    <t>！！！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>StatelessConnectHandlerComponent</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>void StatelessConnectHandlerComponent::Tick(float DeltaTime)</t>
-  </si>
-  <si>
-    <t>if (Handler-&gt;Mode == Handler::Mode::Client)</t>
-  </si>
-  <si>
-    <t>if (State != Handler::Component::State::Initialized &amp;&amp; LastClientSendTimestamp != 0.0)</t>
-  </si>
-  <si>
-    <t>double LastSendTimeDiff = FPlatformTime::Seconds() - LastClientSendTimestamp;</t>
-  </si>
-  <si>
-    <t>if (LastSendTimeDiff &gt; 1.0)</t>
-  </si>
-  <si>
-    <t>const bool bRestartChallenge = Driver != nullptr &amp;&amp; ((Driver-&gt;GetElapsedTime() - LastChallengeTimestamp) &gt; MIN_COOKIE_LIFETIME);</t>
-  </si>
-  <si>
-    <t>if (bRestartChallenge)</t>
-  </si>
-  <si>
-    <t>SetState(Handler::Component::State::UnInitialized);</t>
-  </si>
-  <si>
-    <t>if (State == Handler::Component::State::UnInitialized)</t>
-  </si>
-  <si>
-    <t>UE_LOG(LogHandshake, Verbose, TEXT("Initial handshake packet timeout - resending."));</t>
-  </si>
-  <si>
-    <t>NotifyHandshakeBegin();</t>
-  </si>
-  <si>
-    <t>else if (State == Handler::Component::State::InitializedOnLocal &amp;&amp; LastTimestamp != 0.0)</t>
-  </si>
-  <si>
-    <t>UE_LOG(LogHandshake, Verbose, TEXT("Challenge response packet timeout - resending."));</t>
-  </si>
-  <si>
-    <t>SendChallengeResponse(LastSecretId, LastTimestamp, LastCookie);</t>
-  </si>
-  <si>
-    <t>有超时机制，有状态机制，按照状态进行发包</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>超时判断，这块真叼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>发送开始握手包</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">发送反馈包 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>服务器返回消息包处理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>握手包的返回处理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>根据Timestamp设置不同的状态，发不同的反馈包</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>返回ChallengeResponse</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>注意，收到challenge ack之后就Initialized</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>然后到void UPendingNetGame::SendInitialJoin()</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>发送NMT_Hello消息包</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>void StatelessConnectHandlerComponent::Incoming(FBitReader&amp; Packet)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>连接流程：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>跳转场景</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LoadMap</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>// Update the pending level.</t>
-  </si>
-  <si>
-    <t>注意，这个地方就是看的UPendingNetGame对象</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>！！！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>const bool bLoadedMapSuccessfully = LoadMap(Context, Context.PendingNetGame-&gt;URL, Context.PendingNetGame, Error);</t>
-  </si>
-  <si>
-    <t>加载目标地图</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>if (Context.PendingNetGame &amp;&amp; Context.PendingNetGame-&gt;bSuccessfullyConnected &amp;&amp; !Context.PendingNetGame-&gt;bSentJoinRequest &amp;&amp; (Context.OwningGameInstance == NULL || !Context.OwningGameInstance-&gt;DelayPendingNetGameTravel()))</t>
-  </si>
-  <si>
-    <t>条件判断</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在PendingNetGame.cpp收到消息包NMT_Welcome后设置URL和bSuccessfullyConnected</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Context.PendingNetGame-&gt;LoadMapCompleted(this, Context, bLoadedMapSuccessfully, Error);</t>
-  </si>
-  <si>
-    <t>加载完地图的成功回调</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>void UPendingNetGame::LoadMapCompleted(UEngine* Engine, FWorldContext&amp; Context, bool bLoadedMapSuccessfully, const FString&amp; LoadMapError)</t>
-  </si>
-  <si>
-    <t>Context.PendingNetGame-&gt;SendJoin();</t>
-  </si>
-  <si>
-    <t>发送Join消息包？？？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在DS-Client模式下，客户端没有该类</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>客户端创建</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>！！！！注意，仅仅是这个地方不依赖于GameMode创建了，但是会通过协议让客户端创建</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>会通过网络协议创建</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>void APlayerState::PostInitializeComponents()</t>
-  </si>
-  <si>
-    <t>if (GameStateBase != nullptr )</t>
-  </si>
-  <si>
-    <t>GameStateBase-&gt;AddPlayerState(this);</t>
-  </si>
-  <si>
-    <t>和现有的gameState绑定，GameState也是通过服务器创建的</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>！！！何时和PlayerController挂钩的？？？？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>其从属于World，是World的一个变量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UCLASS(customConstructor, config=Engine)</t>
-  </si>
-  <si>
-    <t>class ENGINE_API UWorld final : public UObject, public FNetworkNotify</t>
-  </si>
-  <si>
-    <t>成员变量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/** The NAME_GameNetDriver game connection(s) for client/server communication */</t>
-  </si>
-  <si>
-    <t>UPROPERTY(Transient)</t>
-  </si>
-  <si>
-    <t>class UNetDriver*</t>
-  </si>
-  <si>
-    <t>NetDriver;</t>
-  </si>
-  <si>
-    <t>！！！从属于World</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/** The current GameMode, valid only on the server */</t>
-  </si>
-  <si>
-    <t>class AGameModeBase*</t>
-  </si>
-  <si>
-    <t>AuthorityGameMode;</t>
-  </si>
-  <si>
-    <t>/** The replicated actor which contains game state information that can be accessible to clients. Direct access is not allowed, use GetGameState&lt;&gt;() */</t>
-  </si>
-  <si>
-    <t>class AGameStateBase*</t>
-  </si>
-  <si>
-    <t>GameState;</t>
-  </si>
-  <si>
-    <t>客户端模式下没有，主要进行PreLogin和Login等判断的</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>该流程会释放LocalPlayer身上的PlayerController；重新和新的PlayerController绑定</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>void UActorChannel::ReceivedBunch( FInBunch &amp; Bunch )</t>
-  </si>
-  <si>
-    <t>ProcessBunch(Bunch);</t>
-  </si>
-  <si>
-    <t>void UActorChannel::ProcessBunch( FInBunch &amp; Bunch )</t>
-  </si>
-  <si>
-    <t>NotifyActorChannelOpen(Actor, Bunch);</t>
-  </si>
-  <si>
-    <t>void UActorChannel::NotifyActorChannelOpen(AActor* InActor, FInBunch&amp; InBunch)</t>
-  </si>
-  <si>
-    <t>Actor-&gt;OnActorChannelOpen(InBunch, Connection);</t>
-  </si>
-  <si>
-    <t>void APlayerController::OnActorChannelOpen(FInBunch&amp; InBunch, UNetConnection* Connection)</t>
-  </si>
-  <si>
-    <t>void UNetConnection::HandleClientPlayer( APlayerController *PC, UNetConnection* NetConnection )</t>
-  </si>
-  <si>
-    <t>何时创建自己的PlayerController???</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>主要问题</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>别的玩家会创建吗？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PlayerState和PlayerController怎么结合？？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>何时创建对应的PAWN？？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PlayerController是针对玩家自己的，所以只会为自己创建，别的玩家不是</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>！！！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>自己和别人的PlayerState都会同步到每一个客户端</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DS和客户端的同步</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>例如通过消息，设置客户端的PlayerController中的PlayerState</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>处理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>收包</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>不仅仅是包含属性设置，包括对象赋值也是（对象本地会通过协议先创建，然后通过反射设置）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>// Go over recently imported network guids, and see if there are any replicators that need to map them</t>
-  </si>
-  <si>
-    <t>TSet&lt; FNetworkGUID &gt;&amp; ImportedNetGuids = GuidCache-&gt;ImportedNetGuids;</t>
-  </si>
-  <si>
-    <t>NewlyMappedGuids.Add( NetworkGuid );</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>插入到NewlyMappedGuids</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>遍历NewlyMappedGuids，从GuidToReplicatorMap找到对应的FObjectReplicator，放入列表AllReplicators</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>for ( const FNetworkGUID&amp; NetGuid : NewlyMappedGuids )</t>
-  </si>
-  <si>
-    <t>TSet&lt; FObjectReplicator* &gt;* Replicators = GuidToReplicatorMap.Find( NetGuid );</t>
-  </si>
-  <si>
-    <t>if ( Replicators )</t>
-  </si>
-  <si>
-    <t>AllReplicators.Append( *Replicators );</t>
-  </si>
-  <si>
-    <t>for ( FObjectReplicator* Replicator : AllReplicators )</t>
-  </si>
-  <si>
-    <t>if ( UnmappedReplicators.Contains( Replicator ) )</t>
-  </si>
-  <si>
-    <t>bool bHasMoreUnmapped = false;</t>
-  </si>
-  <si>
-    <t>Replicator-&gt;UpdateUnmappedObjects( bHasMoreUnmapped );</t>
-  </si>
-  <si>
-    <t>if ( !bHasMoreUnmapped )</t>
-  </si>
-  <si>
-    <t>UnmappedReplicators.Remove( Replicator );</t>
-  </si>
-  <si>
-    <t>！！！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>void FObjectReplicator::UpdateUnmappedObjects(bool &amp; bOutHasMoreUnmapped)</t>
-  </si>
-  <si>
-    <t>FObjectReplicator内部包含其关联的Object对象，例如PlayerController</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>// Since RepNotifies aren't processed while a channel has queued bunches, don't assert in that case.</t>
-  </si>
-  <si>
-    <t>FReceivingRepState* ReceivingRepState = RepState-&gt;GetReceivingRepState();</t>
-  </si>
-  <si>
-    <t>收到的赋值信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LocalRepLayout.UpdateUnmappedObjects(ReceivingRepState, Connection-&gt;PackageMap, Object, Parms, bCalledPreNetReceive, bSomeObjectsWereMapped, bOutHasMoreUnmapped);</t>
-  </si>
-  <si>
-    <t>调用</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>内部的RepState-&gt;GuidReferencesMap很重要，保存了赋值涉及的信息，后续遍历进行操作</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>void FRepLayout::UpdateUnmappedObjects_r(</t>
-  </si>
-  <si>
-    <t>Cmd.Property-&gt;NetSerializeItem(Reader, PackageMap, Data + AbsOffset);</t>
-  </si>
-  <si>
-    <t>设置属性</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UCLASS(config=Game, notplaceable, BlueprintType, Blueprintable)</t>
-  </si>
-  <si>
-    <t>class ENGINE_API AGameStateBase : public AInfo</t>
-  </si>
-  <si>
-    <t>/** Array of all PlayerStates, maintained on both server and clients (PlayerStates are always relevant) */</t>
-  </si>
-  <si>
-    <t>UPROPERTY(Transient, BlueprintReadOnly, Category=GameState)</t>
-  </si>
-  <si>
-    <t>TArray&lt;APlayerState*&gt; PlayerArray;</t>
-  </si>
-  <si>
-    <t>！！！客户端的GameState里面保存了所有的PlayerState</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>成员信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">TArray&lt;APlayerState*&gt; </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PlayerArray;</t>
-  </si>
-  <si>
-    <t>成员</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在多个地方都保存了PlayerState的变量，例如Controller里面，GameState里面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>将自己加入到GameState中</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>！！！缺省的，肯定会加入到GameState中的</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>！！！独立模式下</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>通过网络消息来设置PC里面的PlayerState</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>！！！DS-Client模式下</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>void APlayerController::PostInitializeComponents()</t>
-  </si>
-  <si>
-    <t>在PlayerControlller的Post里面创建PlayerState</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>InitPlayerState();</t>
-  </si>
-  <si>
-    <t>PlayerState = World-&gt;SpawnActor&lt;APlayerState&gt;(PlayerStateClassToSpawn, SpawnInfo);</t>
-  </si>
-  <si>
-    <t>角色的Pawn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PlayerController内部的SpectatorPawn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/**</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> * SpectatorPawns are simple pawns that can fly around the world, used by</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> * PlayerControllers when in the spectator state.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> */</t>
-  </si>
-  <si>
-    <t>SpectatorPawn是只在特殊状态下使用</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>通过网络协议进行创建，然后是和PlayerController绑定</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PC和PAWN怎么联系起来</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在服务器的回调里面将两者关联起来</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>void APawn::OnRep_Controller()</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>！！！！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TICK中收包</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>void UIpNetDriver::TickDispatch(float DeltaTime)</t>
-  </si>
-  <si>
-    <t>Connection-&gt;ReceivedRawPacket((uint8*)ReceivedPacket.DataView.GetData(), ReceivedPacket.DataView.NumBytes());</t>
-  </si>
-  <si>
-    <t>void UIpConnection::ReceivedRawPacket(void* Data, int32 Count)</t>
-  </si>
-  <si>
-    <t>Super::ReceivedRawPacket(Data, Count);</t>
-  </si>
-  <si>
-    <t>void UNetConnection::ReceivedRawPacket( void* InData, int32 Count )</t>
-  </si>
-  <si>
-    <t>// Process all incoming packets</t>
-  </si>
-  <si>
-    <t>for (FPacketIterator It(this); It; ++It)</t>
-  </si>
-  <si>
-    <t>FReceivedPacketView ReceivedPacket;</t>
-  </si>
-  <si>
-    <t>FInPacketTraits&amp; ReceivedTraits = ReceivedPacket.Traits;</t>
-  </si>
-  <si>
-    <t>！！！不断的收包</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>消息包处理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>对客户端来说就是收到消息后调用Connect的收包处理；服务器牵扯到握手，做的事情更多</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bool bOk = It.GetCurrentPacket(ReceivedPacket);</t>
-  </si>
-  <si>
-    <t>if (Handler.IsValid())</t>
-  </si>
-  <si>
-    <t>const ProcessedPacket UnProcessedPacket = Handler-&gt;Incoming(Data, Count);</t>
-  </si>
-  <si>
-    <t>ReceivedPacket(Reader);</t>
-  </si>
-  <si>
-    <t>！！！握手阶段的消息包处理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>switch (ChType)</t>
-  </si>
-  <si>
-    <t>case CHTYPE_Control:</t>
-  </si>
-  <si>
-    <t>Bunch.ChName = NAME_Control;</t>
-  </si>
-  <si>
-    <t>break;</t>
-  </si>
-  <si>
-    <t>case CHTYPE_Voice:</t>
-  </si>
-  <si>
-    <t>Bunch.ChName = NAME_Voice;</t>
-  </si>
-  <si>
-    <t>case CHTYPE_Actor:</t>
-  </si>
-  <si>
-    <t>Bunch.ChName = NAME_Actor;</t>
-  </si>
-  <si>
-    <t>UChannel* Channel = Channels[Bunch.ChIndex];</t>
-  </si>
-  <si>
-    <t>void UNetConnection::ReceivedPacket( FBitReader&amp; Reader, bool bIsReinjectedPacket)</t>
-  </si>
-  <si>
-    <t>获取对应的channel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Channel-&gt;ReceivedRawBunch( Bunch, bLocalSkipAck ); //warning: May destroy channel.</t>
-  </si>
-  <si>
-    <t>Channel处理消息包</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>处理过程</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在Incoming中判断是否为服务器的challenge Ack消息包</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>如果是调用Initialized();</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>内部会触发事件回调，调用SendInialJoin</t>
+    <t xml:space="preserve">在DS-Client模式下，为何服务器生成的Actor，Role=Authority，RemoteRole=ROLE_SimulatedProxy </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">但是这个Actor同步到客户端之后，就变成了Role=ROLE_SimulatedProxy和RemoteRole=Authority </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>？？？！！！！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>原因分析；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在客户端收到Bunch创建对象的时候，</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bool UPackageMapClient::SerializeNewActor(FArchive&amp; Ar, class UActorChannel *Channel, class AActor*&amp; Actor)</t>
+  </si>
+  <si>
+    <t>bSpawnedNewActor = Connection-&gt;PackageMap-&gt;SerializeNewActor(Bunch, this, NewChannelActor);</t>
+  </si>
+  <si>
+    <t>FActorSpawnParameters SpawnInfo;</t>
+  </si>
+  <si>
+    <t>SpawnInfo.Template = Cast&lt;AActor&gt;(Archetype);</t>
+  </si>
+  <si>
+    <t>SpawnInfo.OverrideLevel = SpawnLevel;</t>
+  </si>
+  <si>
+    <t>SpawnInfo.SpawnCollisionHandlingOverride = ESpawnActorCollisionHandlingMethod::AlwaysSpawn;</t>
+  </si>
+  <si>
+    <t>SpawnInfo.bRemoteOwned = true;</t>
+  </si>
+  <si>
+    <t>SpawnInfo.bNoFail = true;</t>
+  </si>
+  <si>
+    <t>UWorld* World = Connection-&gt;Driver-&gt;GetWorld();</t>
+  </si>
+  <si>
+    <t>FVector SpawnLocation = FRepMovement::RebaseOntoLocalOrigin(Location, World-&gt;OriginLocation);</t>
+  </si>
+  <si>
+    <t>Actor = World-&gt;SpawnActorAbsolute(Archetype-&gt;GetClass(), FTransform(Rotation, SpawnLocation), SpawnInfo);</t>
+  </si>
+  <si>
+    <t>！！！！注意，这个变量设置的是true</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AActor* UWorld::SpawnActorAbsolute( UClass* Class, FTransform const&amp; AbsoluteTransform, const FActorSpawnParameters&amp; SpawnParameters)</t>
+  </si>
+  <si>
+    <t>return SpawnActor(Class, &amp;NewTransform, SpawnParameters);</t>
+  </si>
+  <si>
+    <t>AActor* UWorld::SpawnActor( UClass* Class, FTransform const* UserTransformPtr, const FActorSpawnParameters&amp; SpawnParameters )</t>
+  </si>
+  <si>
+    <t>Actor-&gt;PostSpawnInitialize(UserTransform, SpawnParameters.Owner, SpawnParameters.Instigator, SpawnParameters.IsRemoteOwned(), SpawnParameters.bNoFail, SpawnParameters.bDeferConstruction);</t>
+  </si>
+  <si>
+    <t>void AActor::PostSpawnInitialize(FTransform const&amp; UserSpawnTransform, AActor* InOwner, APawn* InInstigator, bool bRemoteOwned, bool bNoFail, bool bDeferConstruction)</t>
+  </si>
+  <si>
+    <t>// Set network role.</t>
+  </si>
+  <si>
+    <t>check(GetLocalRole() == ROLE_Authority);</t>
+  </si>
+  <si>
+    <t>ExchangeNetRoles(bRemoteOwned);</t>
+  </si>
+  <si>
+    <t>！！！注意这个地方，会交换Role和RemoteRole</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>checkf(!HasAnyFlags(RF_ClassDefaultObject), TEXT("ExchangeNetRoles should never be called on a CDO as it causes issues when replicating actors over the network due to mutated transient data!"));</t>
+  </si>
+  <si>
+    <t>if (!bExchangedRoles)</t>
+  </si>
+  <si>
+    <t>if (bRemoteOwned)</t>
+  </si>
+  <si>
+    <t>Exchange( Role, RemoteRole );</t>
+  </si>
+  <si>
+    <t>bExchangedRoles = true;</t>
+  </si>
+  <si>
+    <t>将两者交换，所以和服务器是反着来的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void AActor::ExchangeNetRoles(bool bRemoteOwned)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2376,7 +2467,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2481,6 +2572,20 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="13.2"/>
+      <color rgb="FF121212"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="13.2"/>
+      <color rgb="FF121212"/>
+      <name val="Arial"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -2508,7 +2613,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2532,6 +2637,9 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -3121,10 +3229,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B6:K23"/>
+  <dimension ref="B3:Q44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P22" sqref="P22"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3132,34 +3240,197 @@
     <col min="2" max="2" width="9" style="7"/>
   </cols>
   <sheetData>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B6" s="7" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="K8" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B13" s="7" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="C14" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B22" s="7" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C23" t="s">
-        <v>104</v>
+    <row r="3" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B3" s="7" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="4" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B4" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="N4" s="7" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="6" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="C6" s="7" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="7" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="D7" s="8" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="8" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="E8" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="9" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="F9" t="s">
+        <v>326</v>
+      </c>
+      <c r="N9" s="7"/>
+    </row>
+    <row r="10" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="E10" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="12" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="F12" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="13" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="F13" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="14" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="F14" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="15" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="F15" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="16" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="F16" t="s">
+        <v>331</v>
+      </c>
+      <c r="Q16" s="7" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="17" spans="5:17" x14ac:dyDescent="0.2">
+      <c r="F17" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="19" spans="5:17" x14ac:dyDescent="0.2">
+      <c r="F19" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="20" spans="5:17" x14ac:dyDescent="0.2">
+      <c r="F20" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="21" spans="5:17" x14ac:dyDescent="0.2">
+      <c r="F21" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="22" spans="5:17" x14ac:dyDescent="0.2">
+      <c r="E22" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="23" spans="5:17" x14ac:dyDescent="0.2">
+      <c r="F23" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="24" spans="5:17" x14ac:dyDescent="0.2">
+      <c r="E24" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="25" spans="5:17" x14ac:dyDescent="0.2">
+      <c r="F25" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="26" spans="5:17" x14ac:dyDescent="0.2">
+      <c r="E26" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="28" spans="5:17" x14ac:dyDescent="0.2">
+      <c r="F28" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="29" spans="5:17" x14ac:dyDescent="0.2">
+      <c r="F29" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="30" spans="5:17" x14ac:dyDescent="0.2">
+      <c r="F30" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q30" s="7" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="32" spans="5:17" x14ac:dyDescent="0.2">
+      <c r="E32" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="33" spans="5:13" x14ac:dyDescent="0.2">
+      <c r="E33" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="34" spans="5:13" x14ac:dyDescent="0.2">
+      <c r="F34" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="36" spans="5:13" x14ac:dyDescent="0.2">
+      <c r="F36" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="37" spans="5:13" x14ac:dyDescent="0.2">
+      <c r="F37" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="38" spans="5:13" x14ac:dyDescent="0.2">
+      <c r="G38" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="39" spans="5:13" x14ac:dyDescent="0.2">
+      <c r="G39" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="40" spans="5:13" x14ac:dyDescent="0.2">
+      <c r="H40" t="s">
+        <v>349</v>
+      </c>
+      <c r="M40" s="7" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="41" spans="5:13" x14ac:dyDescent="0.2">
+      <c r="G41" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="42" spans="5:13" x14ac:dyDescent="0.2">
+      <c r="G42" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="43" spans="5:13" x14ac:dyDescent="0.2">
+      <c r="F43" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="44" spans="5:13" x14ac:dyDescent="0.2">
+      <c r="E44" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -3181,88 +3452,88 @@
   <sheetData>
     <row r="2" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B2" s="7" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C3" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
     </row>
     <row r="4" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C4" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
     </row>
     <row r="5" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C5" s="8" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
     </row>
     <row r="6" spans="2:18" x14ac:dyDescent="0.2">
       <c r="D6" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
     </row>
     <row r="7" spans="2:18" x14ac:dyDescent="0.2">
       <c r="D7" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
     </row>
     <row r="8" spans="2:18" x14ac:dyDescent="0.2">
       <c r="D8" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="J8" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="N8" s="8" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
     </row>
     <row r="10" spans="2:18" x14ac:dyDescent="0.2">
       <c r="D10" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
     </row>
     <row r="11" spans="2:18" x14ac:dyDescent="0.2">
       <c r="D11" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
     </row>
     <row r="12" spans="2:18" x14ac:dyDescent="0.2">
       <c r="D12" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="J12" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="N12" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="R12" s="8" t="s">
         <v>202</v>
-      </c>
-      <c r="R12" s="8" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="14" spans="2:18" x14ac:dyDescent="0.2">
       <c r="D14" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
     </row>
     <row r="15" spans="2:18" x14ac:dyDescent="0.2">
       <c r="D15" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
     </row>
     <row r="16" spans="2:18" x14ac:dyDescent="0.2">
       <c r="D16" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="J16" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="N16" s="8" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.2">
@@ -3273,12 +3544,12 @@
     </row>
     <row r="20" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C20" s="7" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
     </row>
     <row r="21" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C21" s="7" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="N21" s="8"/>
     </row>
@@ -3288,39 +3559,39 @@
     </row>
     <row r="23" spans="2:15" x14ac:dyDescent="0.2">
       <c r="D23" s="7" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="N23" s="8"/>
     </row>
     <row r="24" spans="2:15" x14ac:dyDescent="0.2">
       <c r="D24" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
     </row>
     <row r="25" spans="2:15" x14ac:dyDescent="0.2">
       <c r="D25" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
     </row>
     <row r="26" spans="2:15" x14ac:dyDescent="0.2">
       <c r="D26" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="J26" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
     </row>
     <row r="30" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B30" s="7" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
     </row>
     <row r="31" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C31" s="7" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>
@@ -3345,7 +3616,7 @@
   <sheetData>
     <row r="3" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B3" s="7" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.2">
@@ -3353,21 +3624,21 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="L4" s="8" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.2">
       <c r="D5" s="8" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="P5" s="7"/>
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.2">
       <c r="D6" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="P6" s="7"/>
     </row>
@@ -3379,10 +3650,10 @@
         <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="L8" s="8" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="M8" s="9"/>
       <c r="N8" s="9"/>
@@ -3390,7 +3661,7 @@
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C9" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="L9" s="9"/>
       <c r="M9" s="9"/>
@@ -3399,7 +3670,7 @@
     </row>
     <row r="10" spans="2:16" x14ac:dyDescent="0.2">
       <c r="D10" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="L10" s="9"/>
       <c r="M10" s="9"/>
@@ -3408,7 +3679,7 @@
     </row>
     <row r="11" spans="2:16" x14ac:dyDescent="0.2">
       <c r="D11" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="L11" s="9"/>
       <c r="M11" s="9"/>
@@ -3426,10 +3697,10 @@
         <v>3</v>
       </c>
       <c r="C13" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="L13" s="9" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="M13" s="9"/>
       <c r="N13" s="9"/>
@@ -3447,22 +3718,22 @@
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B17" s="7" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C18" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.2">
       <c r="D19" s="8" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.2">
       <c r="D20" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
     </row>
     <row r="21" spans="2:12" x14ac:dyDescent="0.2">
@@ -3470,12 +3741,12 @@
         <v>29</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.2">
       <c r="E22" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.2">
@@ -3485,40 +3756,40 @@
     </row>
     <row r="26" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B26" s="7" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
     </row>
     <row r="31" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B31" s="7" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
     </row>
     <row r="32" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B32" s="7" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
     </row>
     <row r="34" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C34" s="8" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
     </row>
     <row r="35" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C35" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
     </row>
     <row r="36" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C36" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
     </row>
     <row r="37" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C37" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="N37" s="7" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
     </row>
   </sheetData>
@@ -3542,7 +3813,7 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="B1" s="8"/>
       <c r="C1" s="8"/>
@@ -3556,7 +3827,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="C2" s="8"/>
       <c r="D2" s="8"/>
@@ -3569,7 +3840,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="C3" s="8"/>
       <c r="D3" s="8"/>
@@ -3582,7 +3853,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>
@@ -3595,7 +3866,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
@@ -3603,7 +3874,7 @@
       <c r="F5" s="8"/>
       <c r="G5" s="8"/>
       <c r="N5" s="7" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
@@ -3615,7 +3886,7 @@
       <c r="F6" s="8"/>
       <c r="G6" s="8"/>
       <c r="N6" s="7" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
@@ -3627,48 +3898,48 @@
       <c r="F7" s="8"/>
       <c r="G7" s="8"/>
       <c r="N7" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="O8" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="N9" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="O10" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" s="7" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="N11" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="O12" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="N13" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="N14" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
     </row>
   </sheetData>
@@ -3690,12 +3961,12 @@
   <sheetData>
     <row r="3" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3" s="7" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4" s="7" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.2">
@@ -3703,23 +3974,23 @@
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B6" s="8" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B7" s="8" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.2">
@@ -3731,32 +4002,32 @@
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B17" s="8" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C18" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C19" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C20" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C21" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B22" s="7" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
     </row>
   </sheetData>
@@ -3988,12 +4259,12 @@
     </row>
     <row r="58" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B58" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="59" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B59" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -4013,22 +4284,22 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9" style="11" customWidth="1"/>
-    <col min="2" max="16384" width="9" style="11"/>
+    <col min="1" max="1" width="9" style="12" customWidth="1"/>
+    <col min="2" max="16384" width="9" style="12"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
-        <v>38</v>
+        <v>319</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="5" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="8" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="10" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="18" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="26" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="33" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="18" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="26" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="33" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:XFD1048576"/>
@@ -4050,67 +4321,67 @@
   <sheetData>
     <row r="2" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B2" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C2" s="9"/>
       <c r="D2" s="9"/>
       <c r="E2" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F2" s="9"/>
       <c r="G2" s="9"/>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.2">
       <c r="D6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.2">
       <c r="D7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.2">
       <c r="D10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.2">
       <c r="D11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.2">
       <c r="E12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.2">
       <c r="E13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.2">
       <c r="E15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="17" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -4123,7 +4394,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A3:W214"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
@@ -4135,10 +4406,10 @@
   <sheetData>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B3" t="s">
         <v>54</v>
-      </c>
-      <c r="B3" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
@@ -4151,34 +4422,34 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="B6"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="7"/>
       <c r="B7" s="8" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="7"/>
       <c r="B8" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="7"/>
       <c r="B9"/>
       <c r="C9" s="8" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="7"/>
       <c r="B10"/>
       <c r="C10" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
@@ -4189,39 +4460,39 @@
       <c r="A12" s="7"/>
       <c r="B12"/>
       <c r="L12" s="8" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" s="7"/>
       <c r="B13" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="L13" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" s="7"/>
       <c r="B14"/>
       <c r="C14" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="M14" s="8" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" s="7"/>
       <c r="B15"/>
       <c r="D15" s="8" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="M15" s="9" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
@@ -4234,62 +4505,62 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B21" s="7" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C22" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D23" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C24" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D26" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E27" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E28" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D29" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E30" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E31" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E32" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="33" spans="5:8" x14ac:dyDescent="0.2">
@@ -4299,7 +4570,7 @@
     </row>
     <row r="34" spans="5:8" x14ac:dyDescent="0.2">
       <c r="F34" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="35" spans="5:8" x14ac:dyDescent="0.2">
@@ -4309,17 +4580,17 @@
     </row>
     <row r="36" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E36" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="37" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E37" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="38" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E38" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="39" spans="5:8" x14ac:dyDescent="0.2">
@@ -4329,7 +4600,7 @@
     </row>
     <row r="40" spans="5:8" x14ac:dyDescent="0.2">
       <c r="F40" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="41" spans="5:8" x14ac:dyDescent="0.2">
@@ -4339,52 +4610,52 @@
     </row>
     <row r="42" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E42" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="43" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E43" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="44" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E44" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="45" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E45" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="46" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E46" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="48" spans="5:8" x14ac:dyDescent="0.2">
       <c r="H48" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="49" spans="8:21" x14ac:dyDescent="0.2">
       <c r="H49" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="50" spans="8:21" x14ac:dyDescent="0.2">
       <c r="I50" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="51" spans="8:21" x14ac:dyDescent="0.2">
       <c r="I51" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="52" spans="8:21" x14ac:dyDescent="0.2">
       <c r="I52" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="53" spans="8:21" x14ac:dyDescent="0.2">
@@ -4394,7 +4665,7 @@
     </row>
     <row r="54" spans="8:21" x14ac:dyDescent="0.2">
       <c r="J54" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="55" spans="8:21" x14ac:dyDescent="0.2">
@@ -4404,7 +4675,7 @@
     </row>
     <row r="56" spans="8:21" x14ac:dyDescent="0.2">
       <c r="I56" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="57" spans="8:21" x14ac:dyDescent="0.2">
@@ -4412,125 +4683,125 @@
     </row>
     <row r="58" spans="8:21" x14ac:dyDescent="0.2">
       <c r="I58" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="60" spans="8:21" x14ac:dyDescent="0.2">
       <c r="K60" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="61" spans="8:21" x14ac:dyDescent="0.2">
       <c r="L61" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="U61" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="U61" s="7" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="62" spans="8:21" x14ac:dyDescent="0.2">
       <c r="L62" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="U62" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="64" spans="8:21" x14ac:dyDescent="0.2">
       <c r="L64" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="L65" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="L66" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="L68" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="R68" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="R68" s="7" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="L69" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="L70" s="8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="L71" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q71" t="s">
         <v>92</v>
-      </c>
-      <c r="Q71" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="R72" t="s">
+        <v>93</v>
+      </c>
+      <c r="U72" t="s">
         <v>94</v>
       </c>
-      <c r="U72" t="s">
-        <v>95</v>
-      </c>
       <c r="W72" s="7" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
     </row>
     <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B76" s="7" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
     </row>
     <row r="78" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C78" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="D79" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
     </row>
     <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="D80" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="81" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E81" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
     </row>
     <row r="82" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D82" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
     </row>
     <row r="83" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C83" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
     </row>
     <row r="85" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D85" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
     </row>
     <row r="86" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D86" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="87" spans="3:5" x14ac:dyDescent="0.2">
@@ -4540,7 +4811,7 @@
     </row>
     <row r="88" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E88" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
     </row>
     <row r="89" spans="3:5" x14ac:dyDescent="0.2">
@@ -4550,7 +4821,7 @@
     </row>
     <row r="91" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D91" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="92" spans="3:5" x14ac:dyDescent="0.2">
@@ -4560,12 +4831,12 @@
     </row>
     <row r="93" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E93" s="8" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
     </row>
     <row r="94" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E94" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
     </row>
     <row r="95" spans="3:5" x14ac:dyDescent="0.2">
@@ -4575,7 +4846,7 @@
     </row>
     <row r="97" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D97" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="98" spans="3:5" x14ac:dyDescent="0.2">
@@ -4585,7 +4856,7 @@
     </row>
     <row r="99" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E99" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
     </row>
     <row r="100" spans="3:5" x14ac:dyDescent="0.2">
@@ -4595,17 +4866,17 @@
     </row>
     <row r="102" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C102" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
     </row>
     <row r="104" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D104" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
     </row>
     <row r="105" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D105" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
     </row>
     <row r="106" spans="3:5" x14ac:dyDescent="0.2">
@@ -4615,17 +4886,17 @@
     </row>
     <row r="107" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E107" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
     </row>
     <row r="108" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E108" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
     </row>
     <row r="109" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E109" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
     </row>
     <row r="110" spans="3:5" x14ac:dyDescent="0.2">
@@ -4635,78 +4906,78 @@
     </row>
     <row r="112" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C112" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
     </row>
     <row r="113" spans="3:14" x14ac:dyDescent="0.2">
       <c r="D113" s="8" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
     </row>
     <row r="114" spans="3:14" x14ac:dyDescent="0.2">
       <c r="D114" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="115" spans="3:14" x14ac:dyDescent="0.2">
       <c r="E115" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="L115" s="7" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="116" spans="3:14" x14ac:dyDescent="0.2">
       <c r="D116" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
     </row>
     <row r="117" spans="3:14" x14ac:dyDescent="0.2">
       <c r="E117" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="118" spans="3:14" x14ac:dyDescent="0.2">
       <c r="D118" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="119" spans="3:14" x14ac:dyDescent="0.2">
       <c r="E119" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="120" spans="3:14" x14ac:dyDescent="0.2">
       <c r="D120" s="8" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="121" spans="3:14" x14ac:dyDescent="0.2">
       <c r="D121" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="123" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C123" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
     </row>
     <row r="124" spans="3:14" x14ac:dyDescent="0.2">
       <c r="D124" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="126" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C126" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="127" spans="3:14" x14ac:dyDescent="0.2">
       <c r="D127" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="N127" s="7" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="128" spans="3:14" x14ac:dyDescent="0.2">
@@ -4714,12 +4985,12 @@
         <v>29</v>
       </c>
       <c r="N128" s="7" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="129" spans="3:6" x14ac:dyDescent="0.2">
       <c r="E129" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="130" spans="3:6" x14ac:dyDescent="0.2">
@@ -4729,7 +5000,7 @@
     </row>
     <row r="131" spans="3:6" x14ac:dyDescent="0.2">
       <c r="F131" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
     </row>
     <row r="132" spans="3:6" x14ac:dyDescent="0.2">
@@ -4744,17 +5015,17 @@
     </row>
     <row r="135" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C135" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="136" spans="3:6" x14ac:dyDescent="0.2">
       <c r="D136" s="8" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
     </row>
     <row r="137" spans="3:6" x14ac:dyDescent="0.2">
       <c r="D137" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="138" spans="3:6" x14ac:dyDescent="0.2">
@@ -4764,7 +5035,7 @@
     </row>
     <row r="139" spans="3:6" x14ac:dyDescent="0.2">
       <c r="E139" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="140" spans="3:6" x14ac:dyDescent="0.2">
@@ -4774,12 +5045,12 @@
     </row>
     <row r="141" spans="3:6" x14ac:dyDescent="0.2">
       <c r="F141" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="143" spans="3:6" x14ac:dyDescent="0.2">
       <c r="F143" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="144" spans="3:6" x14ac:dyDescent="0.2">
@@ -4789,17 +5060,17 @@
     </row>
     <row r="145" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G145" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="146" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G146" s="8" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
     </row>
     <row r="147" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G147" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
     </row>
     <row r="148" spans="7:8" x14ac:dyDescent="0.2">
@@ -4809,7 +5080,7 @@
     </row>
     <row r="149" spans="7:8" x14ac:dyDescent="0.2">
       <c r="H149" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
     <row r="150" spans="7:8" x14ac:dyDescent="0.2">
@@ -4819,7 +5090,7 @@
     </row>
     <row r="152" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G152" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="153" spans="7:8" x14ac:dyDescent="0.2">
@@ -4829,17 +5100,17 @@
     </row>
     <row r="154" spans="7:8" x14ac:dyDescent="0.2">
       <c r="H154" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="155" spans="7:8" x14ac:dyDescent="0.2">
       <c r="H155" s="8" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
     </row>
     <row r="156" spans="7:8" x14ac:dyDescent="0.2">
       <c r="H156" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="157" spans="7:8" x14ac:dyDescent="0.2">
@@ -4849,7 +5120,7 @@
     </row>
     <row r="158" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G158" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
     </row>
     <row r="159" spans="7:8" x14ac:dyDescent="0.2">
@@ -4859,17 +5130,17 @@
     </row>
     <row r="160" spans="7:8" x14ac:dyDescent="0.2">
       <c r="H160" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
     </row>
     <row r="161" spans="2:11" x14ac:dyDescent="0.2">
       <c r="H161" s="8" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
     </row>
     <row r="162" spans="2:11" x14ac:dyDescent="0.2">
       <c r="H162" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
     </row>
     <row r="163" spans="2:11" x14ac:dyDescent="0.2">
@@ -4894,72 +5165,72 @@
     </row>
     <row r="170" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B170" s="7" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
     </row>
     <row r="171" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C171" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
     </row>
     <row r="172" spans="2:11" x14ac:dyDescent="0.2">
       <c r="D172" s="8" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
     </row>
     <row r="173" spans="2:11" x14ac:dyDescent="0.2">
       <c r="D173" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
     </row>
     <row r="174" spans="2:11" x14ac:dyDescent="0.2">
       <c r="D174" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="K174" s="7" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
     </row>
     <row r="175" spans="2:11" x14ac:dyDescent="0.2">
       <c r="D175" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K175" s="7"/>
     </row>
     <row r="176" spans="2:11" x14ac:dyDescent="0.2">
       <c r="E176" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
     </row>
     <row r="177" spans="3:17" x14ac:dyDescent="0.2">
       <c r="E177" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
     </row>
     <row r="178" spans="3:17" x14ac:dyDescent="0.2">
       <c r="E178" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
     </row>
     <row r="180" spans="3:17" x14ac:dyDescent="0.2">
       <c r="E180" s="8" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="Q180" s="7" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
     </row>
     <row r="181" spans="3:17" x14ac:dyDescent="0.2">
       <c r="E181" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="Q181" s="7" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
     </row>
     <row r="182" spans="3:17" x14ac:dyDescent="0.2">
       <c r="D182" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="Q182" s="7"/>
     </row>
@@ -4968,17 +5239,17 @@
     </row>
     <row r="184" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C184" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
     </row>
     <row r="185" spans="3:17" x14ac:dyDescent="0.2">
       <c r="D185" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
     </row>
     <row r="186" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C186" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
     </row>
     <row r="188" spans="3:17" x14ac:dyDescent="0.2">
@@ -4986,20 +5257,20 @@
         <v>1</v>
       </c>
       <c r="D188" s="7" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
     </row>
     <row r="189" spans="3:17" x14ac:dyDescent="0.2">
       <c r="D189" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
     </row>
     <row r="190" spans="3:17" x14ac:dyDescent="0.2">
       <c r="E190" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="O190" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
     </row>
     <row r="192" spans="3:17" x14ac:dyDescent="0.2">
@@ -5007,30 +5278,30 @@
         <v>2</v>
       </c>
       <c r="D192" s="8" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
     </row>
     <row r="193" spans="3:15" x14ac:dyDescent="0.2">
       <c r="D193" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
     </row>
     <row r="196" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C196" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
     </row>
     <row r="197" spans="3:15" x14ac:dyDescent="0.2">
       <c r="D197" s="8" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
     </row>
     <row r="198" spans="3:15" x14ac:dyDescent="0.2">
       <c r="D198" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="M198" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
     </row>
     <row r="199" spans="3:15" x14ac:dyDescent="0.2">
@@ -5040,58 +5311,58 @@
     </row>
     <row r="200" spans="3:15" x14ac:dyDescent="0.2">
       <c r="D200" s="8" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="N200" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
     </row>
     <row r="201" spans="3:15" x14ac:dyDescent="0.2">
       <c r="D201" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="O201" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
     </row>
     <row r="202" spans="3:15" x14ac:dyDescent="0.2">
       <c r="O202" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
     </row>
     <row r="203" spans="3:15" x14ac:dyDescent="0.2">
       <c r="N203" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
     </row>
     <row r="204" spans="3:15" x14ac:dyDescent="0.2">
       <c r="O204" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
     </row>
     <row r="205" spans="3:15" x14ac:dyDescent="0.2">
       <c r="O205" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
     </row>
     <row r="206" spans="3:15" x14ac:dyDescent="0.2">
       <c r="N206" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
     </row>
     <row r="207" spans="3:15" x14ac:dyDescent="0.2">
       <c r="O207" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
     </row>
     <row r="208" spans="3:15" x14ac:dyDescent="0.2">
       <c r="O208" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
     </row>
     <row r="209" spans="11:14" x14ac:dyDescent="0.2">
       <c r="N209" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
     </row>
     <row r="210" spans="11:14" x14ac:dyDescent="0.2">
@@ -5101,7 +5372,7 @@
     </row>
     <row r="214" spans="11:14" x14ac:dyDescent="0.2">
       <c r="K214" s="7" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
     </row>
   </sheetData>
@@ -5127,108 +5398,108 @@
   <sheetData>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="8" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C26" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C28" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C30" s="7" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="I30" s="7" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C31" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C32" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
     </row>
     <row r="33" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D33" s="8" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
     </row>
     <row r="34" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D34" s="8" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
     </row>
     <row r="35" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D35" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
     </row>
     <row r="36" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E36" s="8" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
     </row>
     <row r="37" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E37" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
     </row>
     <row r="39" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C39" s="8" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
     </row>
     <row r="40" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C40" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
     </row>
     <row r="42" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C42" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
     </row>
     <row r="43" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D43" s="8" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
     </row>
     <row r="44" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D44" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>
@@ -5254,62 +5525,62 @@
   <sheetData>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C2" s="7" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="N5" s="8" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="7" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C16" s="8" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
     </row>
     <row r="17" spans="3:6" x14ac:dyDescent="0.2">
       <c r="D17" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
     </row>
     <row r="19" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C19" s="8" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
     </row>
     <row r="20" spans="3:6" x14ac:dyDescent="0.2">
       <c r="D20" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
     </row>
     <row r="21" spans="3:6" x14ac:dyDescent="0.2">
@@ -5319,12 +5590,12 @@
     </row>
     <row r="22" spans="3:6" x14ac:dyDescent="0.2">
       <c r="E22" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
     </row>
     <row r="23" spans="3:6" x14ac:dyDescent="0.2">
       <c r="E23" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
     </row>
     <row r="24" spans="3:6" x14ac:dyDescent="0.2">
@@ -5334,7 +5605,7 @@
     </row>
     <row r="25" spans="3:6" x14ac:dyDescent="0.2">
       <c r="F25" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
     </row>
     <row r="26" spans="3:6" x14ac:dyDescent="0.2">
@@ -5349,7 +5620,7 @@
     </row>
     <row r="28" spans="3:6" x14ac:dyDescent="0.2">
       <c r="D28" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
     </row>
     <row r="29" spans="3:6" x14ac:dyDescent="0.2">
@@ -5359,7 +5630,7 @@
     </row>
     <row r="30" spans="3:6" x14ac:dyDescent="0.2">
       <c r="E30" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
     </row>
     <row r="31" spans="3:6" x14ac:dyDescent="0.2">
@@ -5369,20 +5640,20 @@
     </row>
     <row r="32" spans="3:6" x14ac:dyDescent="0.2">
       <c r="F32" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
     </row>
     <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="7" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="F33" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
     </row>
     <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="F34" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
     </row>
     <row r="35" spans="2:14" x14ac:dyDescent="0.2">
@@ -5392,7 +5663,7 @@
     </row>
     <row r="36" spans="2:14" x14ac:dyDescent="0.2">
       <c r="G36" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
     </row>
     <row r="37" spans="2:14" x14ac:dyDescent="0.2">
@@ -5412,63 +5683,63 @@
     </row>
     <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B41" s="8" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
     </row>
     <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B42" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
     </row>
     <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="8" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
     </row>
     <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="8" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="N45" s="7" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
     </row>
     <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
     </row>
     <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
     </row>
     <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="9" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
     </row>
     <row r="49" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C49" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
     </row>
     <row r="51" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B51" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
     </row>
     <row r="52" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C52" s="7" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="L52" s="7" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
     </row>
     <row r="53" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C53" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
     </row>
   </sheetData>
@@ -5505,7 +5776,7 @@
   <sheetData>
     <row r="5" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B5" s="7" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>

--- a/doc/ue_ds_client.xlsx
+++ b/doc/ue_ds_client.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Github\guanzhongdaoke\ue\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FBB5BEB-BD36-4D32-AA08-56226D9D2034}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{018D8C21-C8C8-4FB8-94F7-6A5F0699C71C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="849" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="849" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="简介" sheetId="9" r:id="rId1"/>
@@ -21,12 +21,13 @@
     <sheet name="连接流程" sheetId="6" r:id="rId6"/>
     <sheet name="同步" sheetId="4" r:id="rId7"/>
     <sheet name="重连" sheetId="5" r:id="rId8"/>
-    <sheet name="AGameModeBase" sheetId="10" r:id="rId9"/>
-    <sheet name="AGameStateBase" sheetId="11" r:id="rId10"/>
-    <sheet name="APlayerState" sheetId="8" r:id="rId11"/>
-    <sheet name="PlayerController" sheetId="12" r:id="rId12"/>
-    <sheet name="Pawn" sheetId="13" r:id="rId13"/>
-    <sheet name="编辑器模式和非编辑器模式不同" sheetId="14" r:id="rId14"/>
+    <sheet name="销毁对象" sheetId="15" r:id="rId9"/>
+    <sheet name="AGameModeBase" sheetId="10" r:id="rId10"/>
+    <sheet name="AGameStateBase" sheetId="11" r:id="rId11"/>
+    <sheet name="APlayerState" sheetId="8" r:id="rId12"/>
+    <sheet name="PlayerController" sheetId="12" r:id="rId13"/>
+    <sheet name="Pawn" sheetId="13" r:id="rId14"/>
+    <sheet name="编辑器模式和非编辑器模式不同" sheetId="14" r:id="rId15"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="353">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="413">
   <si>
     <t>RPC</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2460,6 +2461,200 @@
   </si>
   <si>
     <t>void AActor::ExchangeNetRoles(bool bRemoteOwned)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可同步对象的销毁，主要还是依赖于服务器下发的Bunch来销毁的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bool UChannel::ReceivedSequencedBunch( FInBunch&amp; Bunch )</t>
+  </si>
+  <si>
+    <t>if ( !Closing )</t>
+  </si>
+  <si>
+    <t>ReceivedBunch( Bunch );</t>
+  </si>
+  <si>
+    <t>非关闭销毁，则处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>// We have fully received the bunch, so process it.</t>
+  </si>
+  <si>
+    <t>if( Bunch.bClose )</t>
+  </si>
+  <si>
+    <t>Dormant = (Bunch.CloseReason == EChannelCloseReason::Dormancy);</t>
+  </si>
+  <si>
+    <t>// Handle a close-notify.</t>
+  </si>
+  <si>
+    <t>if( InRec )</t>
+  </si>
+  <si>
+    <t>ensureMsgf(false, TEXT("Close Anomaly %i / %i"), Bunch.ChSequence, InRec-&gt;ChSequence );</t>
+  </si>
+  <si>
+    <t>if ( ChIndex == 0 )</t>
+  </si>
+  <si>
+    <t>UE_LOG(LogNet, Log, TEXT("UChannel::ReceivedSequencedBunch: Bunch.bClose == true. ChIndex == 0. Calling ConditionalCleanUp.") );</t>
+  </si>
+  <si>
+    <t>UE_LOG(LogNetTraffic, Log, TEXT("UChannel::ReceivedSequencedBunch: Bunch.bClose == true. Calling ConditionalCleanUp. ChIndex: %i Reason: %s"), ChIndex, LexToString(Bunch.CloseReason));</t>
+  </si>
+  <si>
+    <t>ConditionalCleanUp(false, Bunch.CloseReason);</t>
+  </si>
+  <si>
+    <t>return true;</t>
+  </si>
+  <si>
+    <t>关闭的Bunch，则处理关闭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void UChannel::ConditionalCleanUp( const bool bForDestroy, EChannelCloseReason CloseReason )</t>
+  </si>
+  <si>
+    <t>关闭处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>if ( CleanUp( bForDestroy, CloseReason ) )</t>
+  </si>
+  <si>
+    <t>调用Channel的CleanUp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bool UActorChannel::CleanUp(const bool bForDestroy, EChannelCloseReason CloseReason)</t>
+  </si>
+  <si>
+    <t>// If we're the client, destroy this actor.</t>
+  </si>
+  <si>
+    <t>if (!bIsServer)</t>
+  </si>
+  <si>
+    <t>判断，如果是客户端才进行销毁处理，且根据不同的类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>if (Actor != NULL)</t>
+  </si>
+  <si>
+    <t>当前Actor不为空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>if (Actor-&gt;GetTearOff() &amp;&amp; !Connection-&gt;Driver-&gt;ShouldClientDestroyTearOffActors())</t>
+  </si>
+  <si>
+    <t>if (!bTornOff)</t>
+  </si>
+  <si>
+    <t>Actor-&gt;SetRole(ROLE_Authority);</t>
+  </si>
+  <si>
+    <t>Actor-&gt;SetReplicates(false);</t>
+  </si>
+  <si>
+    <t>bTornOff = true;</t>
+  </si>
+  <si>
+    <t>if (Actor-&gt;GetWorld() != NULL &amp;&amp; !IsEngineExitRequested())</t>
+  </si>
+  <si>
+    <t>Actor-&gt;TornOff();</t>
+  </si>
+  <si>
+    <t>Connection-&gt;Driver-&gt;NotifyActorTornOff(Actor);</t>
+  </si>
+  <si>
+    <t>else if (Dormant &amp;&amp; (CloseReason == EChannelCloseReason::Dormancy) &amp;&amp; !Actor-&gt;GetTearOff())</t>
+  </si>
+  <si>
+    <t>Actor-&gt;NetDormancy = DORM_DormantAll;</t>
+  </si>
+  <si>
+    <t>Connection-&gt;Driver-&gt;NotifyActorFullyDormantForConnection(Actor, Connection);</t>
+  </si>
+  <si>
+    <t>bWasDormant = true;</t>
+  </si>
+  <si>
+    <t>else if (!Actor-&gt;bNetTemporary &amp;&amp; Actor-&gt;GetWorld() != NULL &amp;&amp; !IsEngineExitRequested() &amp;&amp; Connection-&gt;Driver-&gt;ShouldClientDestroyActor(Actor))</t>
+  </si>
+  <si>
+    <t>UE_LOG(LogNetDormancy, Verbose, TEXT("UActorChannel::CleanUp: Destroying Actor. %s"), *Describe() );</t>
+  </si>
+  <si>
+    <t>DestroyActorAndComponents();</t>
+  </si>
+  <si>
+    <t>挂断类型的处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>静止类型的处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>销毁类型处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>销毁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>！！！实现逻辑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void UActorChannel::DestroyActorAndComponents()</t>
+  </si>
+  <si>
+    <t>// Destroy the actor</t>
+  </si>
+  <si>
+    <t>if (Actor != nullptr)</t>
+  </si>
+  <si>
+    <t>// Unmap any components in this actor. This will make sure that once the Actor is remapped</t>
+  </si>
+  <si>
+    <t>// any references to components will be remapped as well.</t>
+  </si>
+  <si>
+    <t>for (UActorComponent* Component : Actor-&gt;GetComponents())</t>
+  </si>
+  <si>
+    <t>MoveMappedObjectToUnmapped(Component);</t>
+  </si>
+  <si>
+    <t>// Unmap this object so we can remap it if it becomes relevant again in the future</t>
+  </si>
+  <si>
+    <t>MoveMappedObjectToUnmapped(Actor);</t>
+  </si>
+  <si>
+    <t>Actor-&gt;PreDestroyFromReplication();</t>
+  </si>
+  <si>
+    <t>Actor-&gt;Destroy(true);</t>
+  </si>
+  <si>
+    <t>销毁对象</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>！！！销毁处理</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2828,6 +3023,55 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>503365</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>75326</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DB8C2061-DB4A-04E2-C459-9DB02B308856}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10086975" y="1952625"/>
+          <a:ext cx="11676190" cy="6990476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>32</xdr:row>
@@ -2873,7 +3117,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -3231,7 +3475,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B3:Q44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
@@ -3441,6 +3685,28 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DC379E8-C154-40B8-83DA-C54E19B73075}">
+  <dimension ref="B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J30" sqref="J30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B5" s="7" t="s">
+        <v>178</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF8BE456-7A1C-49D1-A2F1-4D79C91A2938}">
   <dimension ref="B2:R31"/>
   <sheetViews>
@@ -3601,7 +3867,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="B3:P37"/>
   <sheetViews>
@@ -3798,7 +4064,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FEB4444-9700-4BF4-A3D6-F4265D7AADC9}">
   <dimension ref="A1:O14"/>
   <sheetViews>
@@ -3949,7 +4215,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72091264-801A-44BE-BAEC-12E75E772F2C}">
   <dimension ref="B3:G22"/>
   <sheetViews>
@@ -4036,7 +4302,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D6F84C0-E9DA-487F-A741-9207390667BC}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -5765,23 +6031,429 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DC379E8-C154-40B8-83DA-C54E19B73075}">
-  <dimension ref="B5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBC009F1-C659-4802-892E-06327F4D9E5B}">
+  <dimension ref="B3:N97"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J30" sqref="J30"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="O88" sqref="O88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B5" s="7" t="s">
-        <v>178</v>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B3" s="7" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C8" s="8" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C9" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D11" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C14" s="8" t="s">
+        <v>369</v>
+      </c>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C15" s="9" t="s">
+        <v>358</v>
+      </c>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C16" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="17" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C17" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D18" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="20" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D20" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="21" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D21" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="22" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D22" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="23" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="E23" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="24" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D24" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="26" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D26" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="27" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D27" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="28" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="E28" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="29" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D29" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="31" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D31" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="32" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D32" s="7" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D33" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D34" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B38" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C39" s="8" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C40" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B42" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="43" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C43" s="8" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="44" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C44" s="8" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="45" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C45" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="46" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C46" s="8" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="47" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C47" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="48" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D48" s="8" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="49" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D49" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="50" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D50" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="51" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="E51" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="52" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="E52" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="53" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="F53" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="54" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="F54" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="55" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="F55" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="56" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="F56" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="57" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="F57" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="58" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="G58" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="59" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="F59" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="61" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="F61" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="62" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="E62" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="63" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D63" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="64" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D64" s="8" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="D65" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="D66" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="E67" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="E69" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="E70" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="D71" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="D72" s="8" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="D73" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="D74" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="E75" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="E76" s="7" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="E77" t="s">
+        <v>394</v>
+      </c>
+      <c r="N77" s="7" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="78" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="D78" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B80" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C81" s="8" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C82" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C83" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C84" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="D85" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="D86" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="D87" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="D88" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="E89" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="D90" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="D92" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="D93" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="D95" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="D96" t="s">
+        <v>410</v>
+      </c>
+      <c r="L96" s="7" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="97" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C97" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/doc/ue_ds_client.xlsx
+++ b/doc/ue_ds_client.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Github\guanzhongdaoke\ue\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\github\ue\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{018D8C21-C8C8-4FB8-94F7-6A5F0699C71C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{095CAB31-746F-4340-93A1-B4D21FB495D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="849" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="923" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="简介" sheetId="9" r:id="rId1"/>
@@ -22,12 +22,13 @@
     <sheet name="同步" sheetId="4" r:id="rId7"/>
     <sheet name="重连" sheetId="5" r:id="rId8"/>
     <sheet name="销毁对象" sheetId="15" r:id="rId9"/>
-    <sheet name="AGameModeBase" sheetId="10" r:id="rId10"/>
-    <sheet name="AGameStateBase" sheetId="11" r:id="rId11"/>
-    <sheet name="APlayerState" sheetId="8" r:id="rId12"/>
-    <sheet name="PlayerController" sheetId="12" r:id="rId13"/>
-    <sheet name="Pawn" sheetId="13" r:id="rId14"/>
-    <sheet name="编辑器模式和非编辑器模式不同" sheetId="14" r:id="rId15"/>
+    <sheet name="LocalPlayer" sheetId="16" r:id="rId10"/>
+    <sheet name="AGameModeBase" sheetId="10" r:id="rId11"/>
+    <sheet name="AGameStateBase" sheetId="11" r:id="rId12"/>
+    <sheet name="APlayerState" sheetId="8" r:id="rId13"/>
+    <sheet name="PlayerController" sheetId="12" r:id="rId14"/>
+    <sheet name="Pawn" sheetId="13" r:id="rId15"/>
+    <sheet name="编辑器模式和非编辑器模式不同" sheetId="14" r:id="rId16"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="413">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="430">
   <si>
     <t>RPC</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2655,6 +2656,62 @@
   </si>
   <si>
     <t>！！！销毁处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>纯客户端实现一个新的Local Player，记录玩家信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UCLASS()</t>
+  </si>
+  <si>
+    <t>class UE4_TEST001_API UMyLocalPlayer : public ULocalPlayer</t>
+  </si>
+  <si>
+    <t>GENERATED_BODY()</t>
+  </si>
+  <si>
+    <t>public:</t>
+  </si>
+  <si>
+    <t>virtual FString GetNickname() const;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> * Retrieves any game-specific login options for this player</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> * if this function returns a non-empty string, the returned option or options be added</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> * passed in to the level loading and connection code.  Options are in URL format,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> * key=value, with multiple options concatenated together with an &amp; between each key/value pair</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> *</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> * @return URL Option or options for this game, Empty string otherwise</t>
+  </si>
+  <si>
+    <t>};</t>
+  </si>
+  <si>
+    <t>！！！用户NICKName这个不需要，可以换成设备信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>！！！这个需要，一般需要设置对应的TOKEN，玩家GUID和相关的信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>virtual FString GetGameLoginOptions() const;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这个回到发送NMT_Login时发送给DS，DS再GameMode的PreLogin里面可以获取</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3685,6 +3742,122 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA0305F8-E8D4-4B20-A5D5-706AF7E9DEEA}">
+  <dimension ref="B3:N23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N12" sqref="N12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B3" s="8" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="C6" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="C7" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="8" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="C8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="D9" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="C11" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="D12" t="s">
+        <v>418</v>
+      </c>
+      <c r="N12" s="7" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N13" s="8" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="D14" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="D15" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="D16" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="D17" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="D18" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="D19" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="D20" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="D21" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="D22" t="s">
+        <v>428</v>
+      </c>
+      <c r="N22" s="7" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C23" t="s">
+        <v>425</v>
+      </c>
+      <c r="N23" s="8" t="s">
+        <v>429</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DC379E8-C154-40B8-83DA-C54E19B73075}">
   <dimension ref="B5"/>
   <sheetViews>
@@ -3706,7 +3879,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF8BE456-7A1C-49D1-A2F1-4D79C91A2938}">
   <dimension ref="B2:R31"/>
   <sheetViews>
@@ -3867,7 +4040,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="B3:P37"/>
   <sheetViews>
@@ -4064,7 +4237,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FEB4444-9700-4BF4-A3D6-F4265D7AADC9}">
   <dimension ref="A1:O14"/>
   <sheetViews>
@@ -4215,7 +4388,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72091264-801A-44BE-BAEC-12E75E772F2C}">
   <dimension ref="B3:G22"/>
   <sheetViews>
@@ -4302,7 +4475,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D6F84C0-E9DA-487F-A741-9207390667BC}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -6034,7 +6207,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBC009F1-C659-4802-892E-06327F4D9E5B}">
   <dimension ref="B3:N97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+    <sheetView topLeftCell="A76" workbookViewId="0">
       <selection activeCell="O88" sqref="O88"/>
     </sheetView>
   </sheetViews>

--- a/doc/ue_ds_client.xlsx
+++ b/doc/ue_ds_client.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\github\ue\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{095CAB31-746F-4340-93A1-B4D21FB495D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B1BB39B-AE70-4A8D-AFBD-4DA6245D4AE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="923" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="923" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="简介" sheetId="9" r:id="rId1"/>
@@ -3745,7 +3745,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA0305F8-E8D4-4B20-A5D5-706AF7E9DEEA}">
   <dimension ref="B3:N23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
@@ -4833,7 +4833,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A3:W214"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A226" workbookViewId="0">
       <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
@@ -5826,7 +5826,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A4:I44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>

--- a/doc/ue_ds_client.xlsx
+++ b/doc/ue_ds_client.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\github\ue\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B1BB39B-AE70-4A8D-AFBD-4DA6245D4AE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A890F978-6D26-4619-8F4F-00AEADE7A0BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="923" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="923" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="简介" sheetId="9" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="430">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="431">
   <si>
     <t>RPC</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2712,6 +2712,10 @@
   </si>
   <si>
     <t>这个回到发送NMT_Login时发送给DS，DS再GameMode的PreLogin里面可以获取</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>因为在基类里面设置了：bOnlyRelevantToOwner = true;所以只同步给自己</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4241,8 +4245,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FEB4444-9700-4BF4-A3D6-F4265D7AADC9}">
   <dimension ref="A1:O14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4273,6 +4277,9 @@
       <c r="E2" s="8"/>
       <c r="F2" s="8"/>
       <c r="G2" s="8"/>
+      <c r="H2" s="7" t="s">
+        <v>430</v>
+      </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="7">
@@ -4833,7 +4840,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A3:W214"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A226" workbookViewId="0">
+    <sheetView topLeftCell="A31" workbookViewId="0">
       <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>

--- a/doc/ue_ds_client.xlsx
+++ b/doc/ue_ds_client.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\github\ue\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GITHUB\ue\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A890F978-6D26-4619-8F4F-00AEADE7A0BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEA6DFC7-5E18-4A32-9E39-F73896F9450D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="923" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="923" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="简介" sheetId="9" r:id="rId1"/>
@@ -22,7 +22,7 @@
     <sheet name="同步" sheetId="4" r:id="rId7"/>
     <sheet name="重连" sheetId="5" r:id="rId8"/>
     <sheet name="销毁对象" sheetId="15" r:id="rId9"/>
-    <sheet name="LocalPlayer" sheetId="16" r:id="rId10"/>
+    <sheet name="UPlayer" sheetId="16" r:id="rId10"/>
     <sheet name="AGameModeBase" sheetId="10" r:id="rId11"/>
     <sheet name="AGameStateBase" sheetId="11" r:id="rId12"/>
     <sheet name="APlayerState" sheetId="8" r:id="rId13"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="431">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="420">
   <si>
     <t>RPC</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2659,63 +2659,28 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>纯客户端实现一个新的Local Player，记录玩家信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UCLASS()</t>
-  </si>
-  <si>
-    <t>class UE4_TEST001_API UMyLocalPlayer : public ULocalPlayer</t>
-  </si>
-  <si>
-    <t>GENERATED_BODY()</t>
-  </si>
-  <si>
-    <t>public:</t>
-  </si>
-  <si>
-    <t>virtual FString GetNickname() const;</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> * Retrieves any game-specific login options for this player</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> * if this function returns a non-empty string, the returned option or options be added</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> * passed in to the level loading and connection code.  Options are in URL format,</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> * key=value, with multiple options concatenated together with an &amp; between each key/value pair</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> *</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> * @return URL Option or options for this game, Empty string otherwise</t>
-  </si>
-  <si>
-    <t>};</t>
-  </si>
-  <si>
-    <t>！！！用户NICKName这个不需要，可以换成设备信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>！！！这个需要，一般需要设置对应的TOKEN，玩家GUID和相关的信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>virtual FString GetGameLoginOptions() const;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>这个回到发送NMT_Login时发送给DS，DS再GameMode的PreLogin里面可以获取</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>因为在基类里面设置了：bOnlyRelevantToOwner = true;所以只同步给自己</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户端的链接</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UCLASS(customConstructor, Abstract, MinimalAPI, transient, config=Engine)</t>
+  </si>
+  <si>
+    <t>class UNetConnection : public UPlayer</t>
+  </si>
+  <si>
+    <t>创建时机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>// Create new connection.</t>
+  </si>
+  <si>
+    <t>！！！之后的通讯都通过这个</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3536,7 +3501,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B3:Q44"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
@@ -3747,111 +3712,62 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA0305F8-E8D4-4B20-A5D5-706AF7E9DEEA}">
-  <dimension ref="B3:N23"/>
+  <dimension ref="B7:P16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N12" sqref="N12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B3" s="8" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="C6" t="s">
+    <row r="7" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B7" s="7" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="C7" t="s">
+    <row r="8" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="C8" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="C8" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="D9" t="s">
+    <row r="9" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="C9" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="C11" t="s">
+    <row r="11" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B11" s="7" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="D12" t="s">
+    <row r="12" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B12" s="7"/>
+      <c r="C12" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="13" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B13" s="7"/>
+      <c r="D13" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="14" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="C14" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="15" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="D15" t="s">
         <v>418</v>
       </c>
-      <c r="N12" s="7" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="N13" s="8" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="D14" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="D15" t="s">
+      <c r="P15" s="7" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:16" x14ac:dyDescent="0.2">
       <c r="D16" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
-      <c r="D17" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
-      <c r="D18" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
-      <c r="D19" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
-      <c r="D20" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
-      <c r="D21" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
-      <c r="D22" t="s">
-        <v>428</v>
-      </c>
-      <c r="N22" s="7" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
-      <c r="C23" t="s">
-        <v>425</v>
-      </c>
-      <c r="N23" s="8" t="s">
-        <v>429</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -4245,8 +4161,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FEB4444-9700-4BF4-A3D6-F4265D7AADC9}">
   <dimension ref="A1:O14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4278,7 +4194,7 @@
       <c r="F2" s="8"/>
       <c r="G2" s="8"/>
       <c r="H2" s="7" t="s">
-        <v>430</v>
+        <v>413</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
@@ -4499,7 +4415,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A4:C59"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="C65" sqref="C65"/>
     </sheetView>
   </sheetViews>
@@ -4840,7 +4756,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A3:W214"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
+    <sheetView topLeftCell="A103" workbookViewId="0">
       <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
@@ -6214,7 +6130,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBC009F1-C659-4802-892E-06327F4D9E5B}">
   <dimension ref="B3:N97"/>
   <sheetViews>
-    <sheetView topLeftCell="A76" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O88" sqref="O88"/>
     </sheetView>
   </sheetViews>
